--- a/MiningTopKCoOccurrenceItemsConsole/testResults/PreprocessingTimeResult.xlsx
+++ b/MiningTopKCoOccurrenceItemsConsole/testResults/PreprocessingTimeResult.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="connect" sheetId="1" r:id="rId1"/>
@@ -648,8 +648,8 @@
         </c:dropLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1150142432"/>
-        <c:axId val="1150150592"/>
+        <c:axId val="1212635072"/>
+        <c:axId val="1212638336"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -881,14 +881,13 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1150142432"/>
+        <c:axId val="1212635072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -955,7 +954,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1150150592"/>
+        <c:crossAx val="1212638336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -963,7 +962,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1150150592"/>
+        <c:axId val="1212638336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -984,7 +983,6 @@
           </c:spPr>
         </c:majorGridlines>
         <c:title>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1045,7 +1043,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1150142432"/>
+        <c:crossAx val="1212635072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1059,7 +1057,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1969,7 +1966,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
@@ -2205,7 +2202,7 @@
         <v>0</v>
       </c>
       <c r="Y3" s="2">
-        <v>444</v>
+        <v>696</v>
       </c>
       <c r="Z3" s="1">
         <v>0</v>
@@ -2721,20 +2718,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" x14ac:dyDescent="0.25">
@@ -2877,251 +2874,571 @@
       <c r="A3" s="1">
         <v>3</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2602</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1790</v>
+      </c>
+      <c r="F3" s="1">
+        <v>27004</v>
+      </c>
       <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
+      <c r="H3" s="1">
+        <v>10569</v>
+      </c>
+      <c r="I3" s="1">
+        <v>3618</v>
+      </c>
+      <c r="J3" s="1">
+        <v>3591</v>
+      </c>
       <c r="L3" s="1">
         <v>3</v>
       </c>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
+      <c r="M3" s="2">
+        <v>0</v>
+      </c>
+      <c r="N3" s="2">
+        <v>27023</v>
+      </c>
+      <c r="O3" s="1">
+        <v>0</v>
+      </c>
+      <c r="P3" s="1">
+        <v>1709</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>22186</v>
+      </c>
       <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
+      <c r="S3" s="1">
+        <v>9119</v>
+      </c>
+      <c r="T3" s="1">
+        <v>3666</v>
+      </c>
+      <c r="U3" s="1">
+        <v>3863</v>
+      </c>
       <c r="W3" s="1">
         <v>3</v>
       </c>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="1"/>
-      <c r="AA3" s="1"/>
-      <c r="AB3" s="1"/>
+      <c r="X3" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>2666</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>1769</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>25353</v>
+      </c>
       <c r="AC3" s="1"/>
-      <c r="AD3" s="1"/>
-      <c r="AE3" s="1"/>
-      <c r="AF3" s="1"/>
+      <c r="AD3" s="1">
+        <v>9108</v>
+      </c>
+      <c r="AE3" s="1">
+        <v>3660</v>
+      </c>
+      <c r="AF3" s="1">
+        <v>3598</v>
+      </c>
       <c r="AH3" s="1">
         <v>3</v>
       </c>
-      <c r="AI3" s="2"/>
-      <c r="AJ3" s="2"/>
-      <c r="AK3" s="1"/>
-      <c r="AL3" s="1"/>
-      <c r="AM3" s="1"/>
+      <c r="AI3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="2">
+        <v>2670</v>
+      </c>
+      <c r="AK3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL3" s="1">
+        <v>1727</v>
+      </c>
+      <c r="AM3" s="1">
+        <v>22173</v>
+      </c>
       <c r="AN3" s="1"/>
-      <c r="AO3" s="1"/>
-      <c r="AP3" s="1"/>
-      <c r="AQ3" s="1"/>
+      <c r="AO3" s="1">
+        <v>9153</v>
+      </c>
+      <c r="AP3" s="1">
+        <v>3674</v>
+      </c>
+      <c r="AQ3" s="1">
+        <v>3575</v>
+      </c>
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>4</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2711</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1754</v>
+      </c>
+      <c r="F4" s="1">
+        <v>23556</v>
+      </c>
       <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
+      <c r="H4" s="1">
+        <v>10118</v>
+      </c>
+      <c r="I4" s="1">
+        <v>3026</v>
+      </c>
+      <c r="J4" s="1">
+        <v>2990</v>
+      </c>
       <c r="L4" s="1">
         <v>4</v>
       </c>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
+      <c r="M4" s="2">
+        <v>0</v>
+      </c>
+      <c r="N4" s="2">
+        <v>2689</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0</v>
+      </c>
+      <c r="P4" s="1">
+        <v>1744</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>22294</v>
+      </c>
       <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
+      <c r="S4" s="1">
+        <v>9092</v>
+      </c>
+      <c r="T4" s="1">
+        <v>3013</v>
+      </c>
+      <c r="U4" s="1">
+        <v>3069</v>
+      </c>
       <c r="W4" s="1">
         <v>4</v>
       </c>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="1"/>
-      <c r="AA4" s="1"/>
-      <c r="AB4" s="1"/>
+      <c r="X4" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>2730</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>1833</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>22223</v>
+      </c>
       <c r="AC4" s="1"/>
-      <c r="AD4" s="1"/>
-      <c r="AE4" s="1"/>
-      <c r="AF4" s="1"/>
+      <c r="AD4" s="1">
+        <v>9097</v>
+      </c>
+      <c r="AE4" s="1">
+        <v>3006</v>
+      </c>
+      <c r="AF4" s="1">
+        <v>2976</v>
+      </c>
       <c r="AH4" s="1">
         <v>4</v>
       </c>
-      <c r="AI4" s="2"/>
-      <c r="AJ4" s="2"/>
-      <c r="AK4" s="1"/>
-      <c r="AL4" s="1"/>
-      <c r="AM4" s="1"/>
+      <c r="AI4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="2">
+        <v>2720</v>
+      </c>
+      <c r="AK4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="1">
+        <v>1811</v>
+      </c>
+      <c r="AM4" s="1">
+        <v>22042</v>
+      </c>
       <c r="AN4" s="1"/>
-      <c r="AO4" s="1"/>
-      <c r="AP4" s="1"/>
-      <c r="AQ4" s="1"/>
+      <c r="AO4" s="1">
+        <v>9135</v>
+      </c>
+      <c r="AP4" s="1">
+        <v>2991</v>
+      </c>
+      <c r="AQ4" s="1">
+        <v>2989</v>
+      </c>
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>5</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2733</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1787</v>
+      </c>
+      <c r="F5" s="1">
+        <v>22316</v>
+      </c>
       <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
+      <c r="H5" s="1">
+        <v>9164</v>
+      </c>
+      <c r="I5" s="1">
+        <v>2704</v>
+      </c>
+      <c r="J5" s="1">
+        <v>2689</v>
+      </c>
       <c r="L5" s="1">
         <v>5</v>
       </c>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
+      <c r="M5" s="2">
+        <v>0</v>
+      </c>
+      <c r="N5" s="2">
+        <v>2784</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1">
+        <v>1778</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>22191</v>
+      </c>
       <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
+      <c r="S5" s="1">
+        <v>9115</v>
+      </c>
+      <c r="T5" s="1">
+        <v>2688</v>
+      </c>
+      <c r="U5" s="1">
+        <v>2648</v>
+      </c>
       <c r="W5" s="1">
         <v>5</v>
       </c>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="1"/>
-      <c r="AA5" s="1"/>
-      <c r="AB5" s="1"/>
+      <c r="X5" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>2770</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>1752</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>22169</v>
+      </c>
       <c r="AC5" s="1"/>
-      <c r="AD5" s="1"/>
-      <c r="AE5" s="1"/>
-      <c r="AF5" s="1"/>
+      <c r="AD5" s="1">
+        <v>9117</v>
+      </c>
+      <c r="AE5" s="1">
+        <v>2698</v>
+      </c>
+      <c r="AF5" s="1">
+        <v>2661</v>
+      </c>
       <c r="AH5" s="1">
         <v>5</v>
       </c>
-      <c r="AI5" s="2"/>
-      <c r="AJ5" s="2"/>
-      <c r="AK5" s="1"/>
-      <c r="AL5" s="1"/>
-      <c r="AM5" s="1"/>
+      <c r="AI5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="2">
+        <v>2769</v>
+      </c>
+      <c r="AK5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="1">
+        <v>1767</v>
+      </c>
+      <c r="AM5" s="1">
+        <v>21905</v>
+      </c>
       <c r="AN5" s="1"/>
-      <c r="AO5" s="1"/>
-      <c r="AP5" s="1"/>
-      <c r="AQ5" s="1"/>
+      <c r="AO5" s="1">
+        <v>9123</v>
+      </c>
+      <c r="AP5" s="1">
+        <v>2716</v>
+      </c>
+      <c r="AQ5" s="1">
+        <v>2651</v>
+      </c>
     </row>
     <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>6</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2756</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1804</v>
+      </c>
+      <c r="F6" s="1">
+        <v>22231</v>
+      </c>
       <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
+      <c r="H6" s="1">
+        <v>9103</v>
+      </c>
+      <c r="I6" s="1">
+        <v>2488</v>
+      </c>
+      <c r="J6" s="1">
+        <v>2521</v>
+      </c>
       <c r="L6" s="1">
         <v>6</v>
       </c>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
+      <c r="M6" s="2">
+        <v>0</v>
+      </c>
+      <c r="N6" s="2">
+        <v>2766</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0</v>
+      </c>
+      <c r="P6" s="1">
+        <v>1801</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>22176</v>
+      </c>
       <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
+      <c r="S6" s="1">
+        <v>9125</v>
+      </c>
+      <c r="T6" s="1">
+        <v>2479</v>
+      </c>
+      <c r="U6" s="1">
+        <v>2419</v>
+      </c>
       <c r="W6" s="1">
         <v>6</v>
       </c>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="1"/>
-      <c r="AA6" s="1"/>
-      <c r="AB6" s="1"/>
+      <c r="X6" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>2748</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>1796</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>22162</v>
+      </c>
       <c r="AC6" s="1"/>
-      <c r="AD6" s="1"/>
-      <c r="AE6" s="1"/>
-      <c r="AF6" s="1"/>
+      <c r="AD6" s="1">
+        <v>9100</v>
+      </c>
+      <c r="AE6" s="1">
+        <v>2445</v>
+      </c>
+      <c r="AF6" s="1">
+        <v>2454</v>
+      </c>
       <c r="AH6" s="1">
         <v>6</v>
       </c>
-      <c r="AI6" s="2"/>
-      <c r="AJ6" s="2"/>
-      <c r="AK6" s="1"/>
-      <c r="AL6" s="1"/>
-      <c r="AM6" s="1"/>
+      <c r="AI6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="2">
+        <v>2826</v>
+      </c>
+      <c r="AK6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="1">
+        <v>1790</v>
+      </c>
+      <c r="AM6" s="1">
+        <v>24347</v>
+      </c>
       <c r="AN6" s="1"/>
-      <c r="AO6" s="1"/>
-      <c r="AP6" s="1"/>
-      <c r="AQ6" s="1"/>
+      <c r="AO6" s="1">
+        <v>9102</v>
+      </c>
+      <c r="AP6" s="1">
+        <v>2630</v>
+      </c>
+      <c r="AQ6" s="1">
+        <v>2516</v>
+      </c>
     </row>
     <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>7</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>2768</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1838</v>
+      </c>
+      <c r="F7" s="1">
+        <v>22211</v>
+      </c>
       <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
+      <c r="H7" s="1">
+        <v>9118</v>
+      </c>
+      <c r="I7" s="1">
+        <v>2119</v>
+      </c>
+      <c r="J7" s="1">
+        <v>2260</v>
+      </c>
       <c r="L7" s="1">
         <v>7</v>
       </c>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
+      <c r="M7" s="2">
+        <v>0</v>
+      </c>
+      <c r="N7" s="2">
+        <v>2765</v>
+      </c>
+      <c r="O7" s="1">
+        <v>0</v>
+      </c>
+      <c r="P7" s="1">
+        <v>2334</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>22190</v>
+      </c>
       <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
+      <c r="S7" s="1">
+        <v>9163</v>
+      </c>
+      <c r="T7" s="1">
+        <v>2158</v>
+      </c>
+      <c r="U7" s="1">
+        <v>2129</v>
+      </c>
       <c r="W7" s="1">
         <v>7</v>
       </c>
-      <c r="X7" s="2"/>
-      <c r="Y7" s="2"/>
-      <c r="Z7" s="1"/>
-      <c r="AA7" s="1"/>
-      <c r="AB7" s="1"/>
+      <c r="X7" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="2">
+        <v>2773</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>1805</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>22174</v>
+      </c>
       <c r="AC7" s="1"/>
-      <c r="AD7" s="1"/>
-      <c r="AE7" s="1"/>
-      <c r="AF7" s="1"/>
+      <c r="AD7" s="1">
+        <v>9157</v>
+      </c>
+      <c r="AE7" s="1">
+        <v>2161</v>
+      </c>
+      <c r="AF7" s="1">
+        <v>2123</v>
+      </c>
       <c r="AH7" s="1">
         <v>7</v>
       </c>
-      <c r="AI7" s="2"/>
-      <c r="AJ7" s="2"/>
-      <c r="AK7" s="1"/>
-      <c r="AL7" s="1"/>
-      <c r="AM7" s="1"/>
+      <c r="AI7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="2">
+        <v>2912</v>
+      </c>
+      <c r="AK7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="1">
+        <v>1805</v>
+      </c>
+      <c r="AM7" s="1">
+        <v>24624</v>
+      </c>
       <c r="AN7" s="1"/>
-      <c r="AO7" s="1"/>
-      <c r="AP7" s="1"/>
-      <c r="AQ7" s="1"/>
+      <c r="AO7" s="1">
+        <v>9092</v>
+      </c>
+      <c r="AP7" s="1">
+        <v>2288</v>
+      </c>
+      <c r="AQ7" s="1">
+        <v>2133</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/MiningTopKCoOccurrenceItemsConsole/testResults/PreprocessingTimeResult.xlsx
+++ b/MiningTopKCoOccurrenceItemsConsole/testResults/PreprocessingTimeResult.xlsx
@@ -9,11 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="connect" sheetId="1" r:id="rId1"/>
     <sheet name="accidents" sheetId="2" r:id="rId2"/>
+    <sheet name="syn_data1" sheetId="3" r:id="rId3"/>
+    <sheet name="syn_data2" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="14">
   <si>
     <t>K=1</t>
   </si>
@@ -648,8 +650,8 @@
         </c:dropLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1212635072"/>
-        <c:axId val="1212638336"/>
+        <c:axId val="-1892625392"/>
+        <c:axId val="-1892638448"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -881,7 +883,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1212635072"/>
+        <c:axId val="-1892625392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -954,7 +956,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1212638336"/>
+        <c:crossAx val="-1892638448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -962,7 +964,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1212638336"/>
+        <c:axId val="-1892638448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1043,7 +1045,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1212635072"/>
+        <c:crossAx val="-1892625392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2718,7 +2720,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
@@ -3443,4 +3445,790 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AQ7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:AQ7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" t="s">
+        <v>4</v>
+      </c>
+      <c r="W1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH2" s="1"/>
+      <c r="AI2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="L3" s="1">
+        <v>3</v>
+      </c>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="W3" s="1">
+        <v>3</v>
+      </c>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1"/>
+      <c r="AH3" s="1">
+        <v>3</v>
+      </c>
+      <c r="AI3" s="2"/>
+      <c r="AJ3" s="2"/>
+      <c r="AK3" s="1"/>
+      <c r="AL3" s="1"/>
+      <c r="AM3" s="1"/>
+      <c r="AN3" s="1"/>
+      <c r="AO3" s="1"/>
+      <c r="AP3" s="1"/>
+      <c r="AQ3" s="1"/>
+    </row>
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="L4" s="1">
+        <v>4</v>
+      </c>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="W4" s="1">
+        <v>4</v>
+      </c>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="1"/>
+      <c r="AF4" s="1"/>
+      <c r="AH4" s="1">
+        <v>4</v>
+      </c>
+      <c r="AI4" s="2"/>
+      <c r="AJ4" s="2"/>
+      <c r="AK4" s="1"/>
+      <c r="AL4" s="1"/>
+      <c r="AM4" s="1"/>
+      <c r="AN4" s="1"/>
+      <c r="AO4" s="1"/>
+      <c r="AP4" s="1"/>
+      <c r="AQ4" s="1"/>
+    </row>
+    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="L5" s="1">
+        <v>5</v>
+      </c>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="W5" s="1">
+        <v>5</v>
+      </c>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="1"/>
+      <c r="AF5" s="1"/>
+      <c r="AH5" s="1">
+        <v>5</v>
+      </c>
+      <c r="AI5" s="2"/>
+      <c r="AJ5" s="2"/>
+      <c r="AK5" s="1"/>
+      <c r="AL5" s="1"/>
+      <c r="AM5" s="1"/>
+      <c r="AN5" s="1"/>
+      <c r="AO5" s="1"/>
+      <c r="AP5" s="1"/>
+      <c r="AQ5" s="1"/>
+    </row>
+    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="L6" s="1">
+        <v>6</v>
+      </c>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="W6" s="1">
+        <v>6</v>
+      </c>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="1"/>
+      <c r="AC6" s="1"/>
+      <c r="AD6" s="1"/>
+      <c r="AE6" s="1"/>
+      <c r="AF6" s="1"/>
+      <c r="AH6" s="1">
+        <v>6</v>
+      </c>
+      <c r="AI6" s="2"/>
+      <c r="AJ6" s="2"/>
+      <c r="AK6" s="1"/>
+      <c r="AL6" s="1"/>
+      <c r="AM6" s="1"/>
+      <c r="AN6" s="1"/>
+      <c r="AO6" s="1"/>
+      <c r="AP6" s="1"/>
+      <c r="AQ6" s="1"/>
+    </row>
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="L7" s="1">
+        <v>7</v>
+      </c>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="W7" s="1">
+        <v>7</v>
+      </c>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="1"/>
+      <c r="AC7" s="1"/>
+      <c r="AD7" s="1"/>
+      <c r="AE7" s="1"/>
+      <c r="AF7" s="1"/>
+      <c r="AH7" s="1">
+        <v>7</v>
+      </c>
+      <c r="AI7" s="2"/>
+      <c r="AJ7" s="2"/>
+      <c r="AK7" s="1"/>
+      <c r="AL7" s="1"/>
+      <c r="AM7" s="1"/>
+      <c r="AN7" s="1"/>
+      <c r="AO7" s="1"/>
+      <c r="AP7" s="1"/>
+      <c r="AQ7" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AQ7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:AQ7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" t="s">
+        <v>4</v>
+      </c>
+      <c r="W1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH2" s="1"/>
+      <c r="AI2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="L3" s="1">
+        <v>3</v>
+      </c>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="W3" s="1">
+        <v>3</v>
+      </c>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1"/>
+      <c r="AH3" s="1">
+        <v>3</v>
+      </c>
+      <c r="AI3" s="2"/>
+      <c r="AJ3" s="2"/>
+      <c r="AK3" s="1"/>
+      <c r="AL3" s="1"/>
+      <c r="AM3" s="1"/>
+      <c r="AN3" s="1"/>
+      <c r="AO3" s="1"/>
+      <c r="AP3" s="1"/>
+      <c r="AQ3" s="1"/>
+    </row>
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="L4" s="1">
+        <v>4</v>
+      </c>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="W4" s="1">
+        <v>4</v>
+      </c>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="1"/>
+      <c r="AF4" s="1"/>
+      <c r="AH4" s="1">
+        <v>4</v>
+      </c>
+      <c r="AI4" s="2"/>
+      <c r="AJ4" s="2"/>
+      <c r="AK4" s="1"/>
+      <c r="AL4" s="1"/>
+      <c r="AM4" s="1"/>
+      <c r="AN4" s="1"/>
+      <c r="AO4" s="1"/>
+      <c r="AP4" s="1"/>
+      <c r="AQ4" s="1"/>
+    </row>
+    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="L5" s="1">
+        <v>5</v>
+      </c>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="W5" s="1">
+        <v>5</v>
+      </c>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="1"/>
+      <c r="AF5" s="1"/>
+      <c r="AH5" s="1">
+        <v>5</v>
+      </c>
+      <c r="AI5" s="2"/>
+      <c r="AJ5" s="2"/>
+      <c r="AK5" s="1"/>
+      <c r="AL5" s="1"/>
+      <c r="AM5" s="1"/>
+      <c r="AN5" s="1"/>
+      <c r="AO5" s="1"/>
+      <c r="AP5" s="1"/>
+      <c r="AQ5" s="1"/>
+    </row>
+    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="L6" s="1">
+        <v>6</v>
+      </c>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="W6" s="1">
+        <v>6</v>
+      </c>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="1"/>
+      <c r="AC6" s="1"/>
+      <c r="AD6" s="1"/>
+      <c r="AE6" s="1"/>
+      <c r="AF6" s="1"/>
+      <c r="AH6" s="1">
+        <v>6</v>
+      </c>
+      <c r="AI6" s="2"/>
+      <c r="AJ6" s="2"/>
+      <c r="AK6" s="1"/>
+      <c r="AL6" s="1"/>
+      <c r="AM6" s="1"/>
+      <c r="AN6" s="1"/>
+      <c r="AO6" s="1"/>
+      <c r="AP6" s="1"/>
+      <c r="AQ6" s="1"/>
+    </row>
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="L7" s="1">
+        <v>7</v>
+      </c>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="W7" s="1">
+        <v>7</v>
+      </c>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="1"/>
+      <c r="AC7" s="1"/>
+      <c r="AD7" s="1"/>
+      <c r="AE7" s="1"/>
+      <c r="AF7" s="1"/>
+      <c r="AH7" s="1">
+        <v>7</v>
+      </c>
+      <c r="AI7" s="2"/>
+      <c r="AJ7" s="2"/>
+      <c r="AK7" s="1"/>
+      <c r="AL7" s="1"/>
+      <c r="AM7" s="1"/>
+      <c r="AN7" s="1"/>
+      <c r="AO7" s="1"/>
+      <c r="AP7" s="1"/>
+      <c r="AQ7" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/MiningTopKCoOccurrenceItemsConsole/testResults/PreprocessingTimeResult.xlsx
+++ b/MiningTopKCoOccurrenceItemsConsole/testResults/PreprocessingTimeResult.xlsx
@@ -650,8 +650,8 @@
         </c:dropLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1892625392"/>
-        <c:axId val="-1892638448"/>
+        <c:axId val="1895622928"/>
+        <c:axId val="1895615856"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -883,7 +883,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1892625392"/>
+        <c:axId val="1895622928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -956,7 +956,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1892638448"/>
+        <c:crossAx val="1895615856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -964,7 +964,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1892638448"/>
+        <c:axId val="1895615856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1045,7 +1045,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1892625392"/>
+        <c:crossAx val="1895622928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>

--- a/MiningTopKCoOccurrenceItemsConsole/testResults/PreprocessingTimeResult.xlsx
+++ b/MiningTopKCoOccurrenceItemsConsole/testResults/PreprocessingTimeResult.xlsx
@@ -607,19 +607,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>998</c:v>
+                  <c:v>1002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>900</c:v>
+                  <c:v>892</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>757</c:v>
+                  <c:v>768</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>669</c:v>
+                  <c:v>671</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>617</c:v>
+                  <c:v>628</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -650,8 +650,8 @@
         </c:dropLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1895622928"/>
-        <c:axId val="1895615856"/>
+        <c:axId val="1074259264"/>
+        <c:axId val="1074262528"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -883,7 +883,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1895622928"/>
+        <c:axId val="1074259264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -956,7 +956,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1895615856"/>
+        <c:crossAx val="1074262528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -964,7 +964,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1895615856"/>
+        <c:axId val="1074262528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1045,7 +1045,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1895622928"/>
+        <c:crossAx val="1074259264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2167,7 +2167,7 @@
         <v>1003</v>
       </c>
       <c r="J3" s="1">
-        <v>998</v>
+        <v>1002</v>
       </c>
       <c r="L3" s="1">
         <v>3</v>
@@ -2281,7 +2281,7 @@
         <v>898</v>
       </c>
       <c r="J4" s="1">
-        <v>900</v>
+        <v>892</v>
       </c>
       <c r="L4" s="1">
         <v>4</v>
@@ -2395,7 +2395,7 @@
         <v>754</v>
       </c>
       <c r="J5" s="1">
-        <v>757</v>
+        <v>768</v>
       </c>
       <c r="L5" s="1">
         <v>5</v>
@@ -2509,7 +2509,7 @@
         <v>658</v>
       </c>
       <c r="J6" s="1">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="L6" s="1">
         <v>6</v>
@@ -2623,7 +2623,7 @@
         <v>619</v>
       </c>
       <c r="J7" s="1">
-        <v>617</v>
+        <v>628</v>
       </c>
       <c r="L7" s="1">
         <v>7</v>

--- a/MiningTopKCoOccurrenceItemsConsole/testResults/PreprocessingTimeResult.xlsx
+++ b/MiningTopKCoOccurrenceItemsConsole/testResults/PreprocessingTimeResult.xlsx
@@ -205,19 +205,19 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>427</c:v>
+                  <c:v>752</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>425</c:v>
+                  <c:v>759</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>435</c:v>
+                  <c:v>770</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>432</c:v>
+                  <c:v>765</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>440</c:v>
+                  <c:v>779</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -333,19 +333,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>419</c:v>
+                  <c:v>410</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>425</c:v>
+                  <c:v>402</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>433</c:v>
+                  <c:v>423</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>431</c:v>
+                  <c:v>402</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>453</c:v>
+                  <c:v>406</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -397,19 +397,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>4873</c:v>
+                  <c:v>4994</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4898</c:v>
+                  <c:v>5043</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4932</c:v>
+                  <c:v>5052</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4869</c:v>
+                  <c:v>5037</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4858</c:v>
+                  <c:v>5052</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -467,19 +467,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1775</c:v>
+                  <c:v>1732</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1768</c:v>
+                  <c:v>1735</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1783</c:v>
+                  <c:v>1736</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1781</c:v>
+                  <c:v>1759</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1799</c:v>
+                  <c:v>1760</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -650,8 +650,8 @@
         </c:dropLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1074259264"/>
-        <c:axId val="1074262528"/>
+        <c:axId val="1699595008"/>
+        <c:axId val="1699604256"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -883,7 +883,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1074259264"/>
+        <c:axId val="1699595008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -956,7 +956,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1074262528"/>
+        <c:crossAx val="1699604256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -964,7 +964,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1074262528"/>
+        <c:axId val="1699604256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1045,7 +1045,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1074259264"/>
+        <c:crossAx val="1699595008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2148,20 +2148,20 @@
         <v>0</v>
       </c>
       <c r="C3" s="2">
-        <v>427</v>
+        <v>752</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="F3" s="1">
-        <v>4873</v>
+        <v>4994</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1">
-        <v>1775</v>
+        <v>1732</v>
       </c>
       <c r="I3" s="1">
         <v>1003</v>
@@ -2176,20 +2176,20 @@
         <v>0</v>
       </c>
       <c r="N3" s="2">
-        <v>427</v>
+        <v>766</v>
       </c>
       <c r="O3" s="1">
         <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>432</v>
+        <v>413</v>
       </c>
       <c r="Q3" s="1">
-        <v>4843</v>
+        <v>5026</v>
       </c>
       <c r="R3" s="1"/>
       <c r="S3" s="1">
-        <v>1789</v>
+        <v>1748</v>
       </c>
       <c r="T3" s="1">
         <v>1025</v>
@@ -2204,20 +2204,20 @@
         <v>0</v>
       </c>
       <c r="Y3" s="2">
-        <v>696</v>
+        <v>762</v>
       </c>
       <c r="Z3" s="1">
         <v>0</v>
       </c>
       <c r="AA3" s="1">
-        <v>432</v>
+        <v>410</v>
       </c>
       <c r="AB3" s="1">
-        <v>4994</v>
+        <v>5011</v>
       </c>
       <c r="AC3" s="1"/>
       <c r="AD3" s="1">
-        <v>1760</v>
+        <v>1764</v>
       </c>
       <c r="AE3" s="1">
         <v>1018</v>
@@ -2232,20 +2232,20 @@
         <v>0</v>
       </c>
       <c r="AJ3" s="2">
-        <v>448</v>
+        <v>764</v>
       </c>
       <c r="AK3" s="1">
         <v>0</v>
       </c>
       <c r="AL3" s="1">
-        <v>448</v>
+        <v>410</v>
       </c>
       <c r="AM3" s="1">
-        <v>5028</v>
+        <v>5035</v>
       </c>
       <c r="AN3" s="1"/>
       <c r="AO3" s="1">
-        <v>1781</v>
+        <v>1997</v>
       </c>
       <c r="AP3" s="1">
         <v>1007</v>
@@ -2262,20 +2262,20 @@
         <v>0</v>
       </c>
       <c r="C4" s="2">
-        <v>425</v>
+        <v>759</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
       </c>
       <c r="E4" s="1">
-        <v>425</v>
+        <v>402</v>
       </c>
       <c r="F4" s="1">
-        <v>4898</v>
+        <v>5043</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1">
-        <v>1768</v>
+        <v>1735</v>
       </c>
       <c r="I4" s="1">
         <v>898</v>
@@ -2290,20 +2290,20 @@
         <v>0</v>
       </c>
       <c r="N4" s="2">
-        <v>441</v>
+        <v>761</v>
       </c>
       <c r="O4" s="1">
         <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>423</v>
+        <v>407</v>
       </c>
       <c r="Q4" s="1">
-        <v>4893</v>
+        <v>5016</v>
       </c>
       <c r="R4" s="1"/>
       <c r="S4" s="1">
-        <v>1810</v>
+        <v>1753</v>
       </c>
       <c r="T4" s="1">
         <v>904</v>
@@ -2318,20 +2318,20 @@
         <v>0</v>
       </c>
       <c r="Y4" s="2">
-        <v>430</v>
+        <v>762</v>
       </c>
       <c r="Z4" s="1">
         <v>0</v>
       </c>
       <c r="AA4" s="1">
-        <v>425</v>
+        <v>410</v>
       </c>
       <c r="AB4" s="1">
-        <v>5004</v>
+        <v>5001</v>
       </c>
       <c r="AC4" s="1"/>
       <c r="AD4" s="1">
-        <v>1803</v>
+        <v>1737</v>
       </c>
       <c r="AE4" s="1">
         <v>907</v>
@@ -2346,20 +2346,20 @@
         <v>0</v>
       </c>
       <c r="AJ4" s="2">
-        <v>443</v>
+        <v>765</v>
       </c>
       <c r="AK4" s="1">
         <v>0</v>
       </c>
       <c r="AL4" s="1">
-        <v>443</v>
+        <v>398</v>
       </c>
       <c r="AM4" s="1">
-        <v>5055</v>
+        <v>5005</v>
       </c>
       <c r="AN4" s="1"/>
       <c r="AO4" s="1">
-        <v>1799</v>
+        <v>1733</v>
       </c>
       <c r="AP4" s="1">
         <v>911</v>
@@ -2376,20 +2376,20 @@
         <v>0</v>
       </c>
       <c r="C5" s="2">
-        <v>435</v>
+        <v>770</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="F5" s="1">
-        <v>4932</v>
+        <v>5052</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1">
-        <v>1783</v>
+        <v>1736</v>
       </c>
       <c r="I5" s="1">
         <v>754</v>
@@ -2404,20 +2404,20 @@
         <v>0</v>
       </c>
       <c r="N5" s="2">
-        <v>430</v>
+        <v>772</v>
       </c>
       <c r="O5" s="1">
         <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>423</v>
+        <v>405</v>
       </c>
       <c r="Q5" s="1">
-        <v>4924</v>
+        <v>4995</v>
       </c>
       <c r="R5" s="1"/>
       <c r="S5" s="1">
-        <v>1797</v>
+        <v>1766</v>
       </c>
       <c r="T5" s="1">
         <v>774</v>
@@ -2432,20 +2432,20 @@
         <v>0</v>
       </c>
       <c r="Y5" s="2">
-        <v>433</v>
+        <v>768</v>
       </c>
       <c r="Z5" s="1">
         <v>0</v>
       </c>
       <c r="AA5" s="1">
-        <v>443</v>
+        <v>420</v>
       </c>
       <c r="AB5" s="1">
-        <v>5022</v>
+        <v>5000</v>
       </c>
       <c r="AC5" s="1"/>
       <c r="AD5" s="1">
-        <v>1767</v>
+        <v>1751</v>
       </c>
       <c r="AE5" s="1">
         <v>766</v>
@@ -2460,20 +2460,20 @@
         <v>0</v>
       </c>
       <c r="AJ5" s="2">
-        <v>440</v>
+        <v>767</v>
       </c>
       <c r="AK5" s="1">
         <v>0</v>
       </c>
       <c r="AL5" s="1">
-        <v>454</v>
+        <v>408</v>
       </c>
       <c r="AM5" s="1">
-        <v>5011</v>
+        <v>5003</v>
       </c>
       <c r="AN5" s="1"/>
       <c r="AO5" s="1">
-        <v>1767</v>
+        <v>1726</v>
       </c>
       <c r="AP5" s="1">
         <v>780</v>
@@ -2490,20 +2490,20 @@
         <v>0</v>
       </c>
       <c r="C6" s="2">
-        <v>432</v>
+        <v>765</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>431</v>
+        <v>402</v>
       </c>
       <c r="F6" s="1">
-        <v>4869</v>
+        <v>5037</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1">
-        <v>1781</v>
+        <v>1759</v>
       </c>
       <c r="I6" s="1">
         <v>658</v>
@@ -2518,20 +2518,20 @@
         <v>0</v>
       </c>
       <c r="N6" s="2">
-        <v>437</v>
+        <v>781</v>
       </c>
       <c r="O6" s="1">
         <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="Q6" s="1">
-        <v>4992</v>
+        <v>4973</v>
       </c>
       <c r="R6" s="1"/>
       <c r="S6" s="1">
-        <v>1800</v>
+        <v>1732</v>
       </c>
       <c r="T6" s="1">
         <v>682</v>
@@ -2546,20 +2546,20 @@
         <v>0</v>
       </c>
       <c r="Y6" s="2">
-        <v>437</v>
+        <v>765</v>
       </c>
       <c r="Z6" s="1">
         <v>0</v>
       </c>
       <c r="AA6" s="1">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="AB6" s="1">
-        <v>5023</v>
+        <v>4984</v>
       </c>
       <c r="AC6" s="1"/>
       <c r="AD6" s="1">
-        <v>1763</v>
+        <v>1750</v>
       </c>
       <c r="AE6" s="1">
         <v>677</v>
@@ -2574,20 +2574,20 @@
         <v>0</v>
       </c>
       <c r="AJ6" s="2">
-        <v>455</v>
+        <v>764</v>
       </c>
       <c r="AK6" s="1">
         <v>0</v>
       </c>
       <c r="AL6" s="1">
-        <v>459</v>
+        <v>409</v>
       </c>
       <c r="AM6" s="1">
-        <v>4981</v>
+        <v>5047</v>
       </c>
       <c r="AN6" s="1"/>
       <c r="AO6" s="1">
-        <v>1765</v>
+        <v>1730</v>
       </c>
       <c r="AP6" s="1">
         <v>683</v>
@@ -2604,20 +2604,20 @@
         <v>0</v>
       </c>
       <c r="C7" s="2">
-        <v>440</v>
+        <v>779</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>453</v>
+        <v>406</v>
       </c>
       <c r="F7" s="1">
-        <v>4858</v>
+        <v>5052</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1">
-        <v>1799</v>
+        <v>1760</v>
       </c>
       <c r="I7" s="1">
         <v>619</v>
@@ -2632,20 +2632,20 @@
         <v>0</v>
       </c>
       <c r="N7" s="2">
-        <v>457</v>
+        <v>775</v>
       </c>
       <c r="O7" s="1">
         <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>449</v>
+        <v>430</v>
       </c>
       <c r="Q7" s="1">
-        <v>4994</v>
+        <v>4991</v>
       </c>
       <c r="R7" s="1"/>
       <c r="S7" s="1">
-        <v>1802</v>
+        <v>1748</v>
       </c>
       <c r="T7" s="1">
         <v>636</v>
@@ -2660,20 +2660,20 @@
         <v>0</v>
       </c>
       <c r="Y7" s="2">
-        <v>466</v>
+        <v>778</v>
       </c>
       <c r="Z7" s="1">
         <v>0</v>
       </c>
       <c r="AA7" s="1">
-        <v>450</v>
+        <v>418</v>
       </c>
       <c r="AB7" s="1">
-        <v>5092</v>
+        <v>5013</v>
       </c>
       <c r="AC7" s="1"/>
       <c r="AD7" s="1">
-        <v>1778</v>
+        <v>1814</v>
       </c>
       <c r="AE7" s="1">
         <v>620</v>
@@ -2688,20 +2688,20 @@
         <v>0</v>
       </c>
       <c r="AJ7" s="2">
-        <v>462</v>
+        <v>764</v>
       </c>
       <c r="AK7" s="1">
         <v>0</v>
       </c>
       <c r="AL7" s="1">
-        <v>471</v>
+        <v>426</v>
       </c>
       <c r="AM7" s="1">
-        <v>5054</v>
+        <v>5113</v>
       </c>
       <c r="AN7" s="1"/>
       <c r="AO7" s="1">
-        <v>1769</v>
+        <v>1739</v>
       </c>
       <c r="AP7" s="1">
         <v>616</v>

--- a/MiningTopKCoOccurrenceItemsConsole/testResults/PreprocessingTimeResult.xlsx
+++ b/MiningTopKCoOccurrenceItemsConsole/testResults/PreprocessingTimeResult.xlsx
@@ -205,7 +205,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>752</c:v>
+                  <c:v>655</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>759</c:v>
@@ -650,8 +650,8 @@
         </c:dropLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1699595008"/>
-        <c:axId val="1699604256"/>
+        <c:axId val="1430128880"/>
+        <c:axId val="1430129424"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -883,7 +883,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1699595008"/>
+        <c:axId val="1430128880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -956,7 +956,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1699604256"/>
+        <c:crossAx val="1430129424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -964,7 +964,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1699604256"/>
+        <c:axId val="1430129424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1045,7 +1045,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1699595008"/>
+        <c:crossAx val="1430128880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2148,7 +2148,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="2">
-        <v>752</v>
+        <v>655</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>

--- a/MiningTopKCoOccurrenceItemsConsole/testResults/PreprocessingTimeResult.xlsx
+++ b/MiningTopKCoOccurrenceItemsConsole/testResults/PreprocessingTimeResult.xlsx
@@ -9,13 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="connect" sheetId="1" r:id="rId1"/>
     <sheet name="accidents" sheetId="2" r:id="rId2"/>
     <sheet name="syn_data1" sheetId="3" r:id="rId3"/>
     <sheet name="syn_data2" sheetId="4" r:id="rId4"/>
+    <sheet name="T10I4D100K" sheetId="5" r:id="rId5"/>
+    <sheet name="kosarak" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="14">
   <si>
     <t>K=1</t>
   </si>
@@ -650,8 +652,8 @@
         </c:dropLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1430128880"/>
-        <c:axId val="1430129424"/>
+        <c:axId val="1499769520"/>
+        <c:axId val="1499758096"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -883,7 +885,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1430128880"/>
+        <c:axId val="1499769520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -956,7 +958,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1430129424"/>
+        <c:crossAx val="1499758096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -964,7 +966,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1430129424"/>
+        <c:axId val="1499758096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1045,7 +1047,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1430128880"/>
+        <c:crossAx val="1499769520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3844,6 +3846,792 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ7"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:AQ7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" t="s">
+        <v>4</v>
+      </c>
+      <c r="W1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH2" s="1"/>
+      <c r="AI2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="L3" s="1">
+        <v>3</v>
+      </c>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="W3" s="1">
+        <v>3</v>
+      </c>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1"/>
+      <c r="AH3" s="1">
+        <v>3</v>
+      </c>
+      <c r="AI3" s="2"/>
+      <c r="AJ3" s="2"/>
+      <c r="AK3" s="1"/>
+      <c r="AL3" s="1"/>
+      <c r="AM3" s="1"/>
+      <c r="AN3" s="1"/>
+      <c r="AO3" s="1"/>
+      <c r="AP3" s="1"/>
+      <c r="AQ3" s="1"/>
+    </row>
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="L4" s="1">
+        <v>4</v>
+      </c>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="W4" s="1">
+        <v>4</v>
+      </c>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="1"/>
+      <c r="AF4" s="1"/>
+      <c r="AH4" s="1">
+        <v>4</v>
+      </c>
+      <c r="AI4" s="2"/>
+      <c r="AJ4" s="2"/>
+      <c r="AK4" s="1"/>
+      <c r="AL4" s="1"/>
+      <c r="AM4" s="1"/>
+      <c r="AN4" s="1"/>
+      <c r="AO4" s="1"/>
+      <c r="AP4" s="1"/>
+      <c r="AQ4" s="1"/>
+    </row>
+    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="L5" s="1">
+        <v>5</v>
+      </c>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="W5" s="1">
+        <v>5</v>
+      </c>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="1"/>
+      <c r="AF5" s="1"/>
+      <c r="AH5" s="1">
+        <v>5</v>
+      </c>
+      <c r="AI5" s="2"/>
+      <c r="AJ5" s="2"/>
+      <c r="AK5" s="1"/>
+      <c r="AL5" s="1"/>
+      <c r="AM5" s="1"/>
+      <c r="AN5" s="1"/>
+      <c r="AO5" s="1"/>
+      <c r="AP5" s="1"/>
+      <c r="AQ5" s="1"/>
+    </row>
+    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="L6" s="1">
+        <v>6</v>
+      </c>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="W6" s="1">
+        <v>6</v>
+      </c>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="1"/>
+      <c r="AC6" s="1"/>
+      <c r="AD6" s="1"/>
+      <c r="AE6" s="1"/>
+      <c r="AF6" s="1"/>
+      <c r="AH6" s="1">
+        <v>6</v>
+      </c>
+      <c r="AI6" s="2"/>
+      <c r="AJ6" s="2"/>
+      <c r="AK6" s="1"/>
+      <c r="AL6" s="1"/>
+      <c r="AM6" s="1"/>
+      <c r="AN6" s="1"/>
+      <c r="AO6" s="1"/>
+      <c r="AP6" s="1"/>
+      <c r="AQ6" s="1"/>
+    </row>
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="L7" s="1">
+        <v>7</v>
+      </c>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="W7" s="1">
+        <v>7</v>
+      </c>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="1"/>
+      <c r="AC7" s="1"/>
+      <c r="AD7" s="1"/>
+      <c r="AE7" s="1"/>
+      <c r="AF7" s="1"/>
+      <c r="AH7" s="1">
+        <v>7</v>
+      </c>
+      <c r="AI7" s="2"/>
+      <c r="AJ7" s="2"/>
+      <c r="AK7" s="1"/>
+      <c r="AL7" s="1"/>
+      <c r="AM7" s="1"/>
+      <c r="AN7" s="1"/>
+      <c r="AO7" s="1"/>
+      <c r="AP7" s="1"/>
+      <c r="AQ7" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AQ7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:AQ7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" t="s">
+        <v>4</v>
+      </c>
+      <c r="W1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH2" s="1"/>
+      <c r="AI2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="L3" s="1">
+        <v>3</v>
+      </c>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="W3" s="1">
+        <v>3</v>
+      </c>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1"/>
+      <c r="AH3" s="1">
+        <v>3</v>
+      </c>
+      <c r="AI3" s="2"/>
+      <c r="AJ3" s="2"/>
+      <c r="AK3" s="1"/>
+      <c r="AL3" s="1"/>
+      <c r="AM3" s="1"/>
+      <c r="AN3" s="1"/>
+      <c r="AO3" s="1"/>
+      <c r="AP3" s="1"/>
+      <c r="AQ3" s="1"/>
+    </row>
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="L4" s="1">
+        <v>4</v>
+      </c>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="W4" s="1">
+        <v>4</v>
+      </c>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="1"/>
+      <c r="AF4" s="1"/>
+      <c r="AH4" s="1">
+        <v>4</v>
+      </c>
+      <c r="AI4" s="2"/>
+      <c r="AJ4" s="2"/>
+      <c r="AK4" s="1"/>
+      <c r="AL4" s="1"/>
+      <c r="AM4" s="1"/>
+      <c r="AN4" s="1"/>
+      <c r="AO4" s="1"/>
+      <c r="AP4" s="1"/>
+      <c r="AQ4" s="1"/>
+    </row>
+    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="L5" s="1">
+        <v>5</v>
+      </c>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="W5" s="1">
+        <v>5</v>
+      </c>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="1"/>
+      <c r="AF5" s="1"/>
+      <c r="AH5" s="1">
+        <v>5</v>
+      </c>
+      <c r="AI5" s="2"/>
+      <c r="AJ5" s="2"/>
+      <c r="AK5" s="1"/>
+      <c r="AL5" s="1"/>
+      <c r="AM5" s="1"/>
+      <c r="AN5" s="1"/>
+      <c r="AO5" s="1"/>
+      <c r="AP5" s="1"/>
+      <c r="AQ5" s="1"/>
+    </row>
+    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="L6" s="1">
+        <v>6</v>
+      </c>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="W6" s="1">
+        <v>6</v>
+      </c>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="1"/>
+      <c r="AC6" s="1"/>
+      <c r="AD6" s="1"/>
+      <c r="AE6" s="1"/>
+      <c r="AF6" s="1"/>
+      <c r="AH6" s="1">
+        <v>6</v>
+      </c>
+      <c r="AI6" s="2"/>
+      <c r="AJ6" s="2"/>
+      <c r="AK6" s="1"/>
+      <c r="AL6" s="1"/>
+      <c r="AM6" s="1"/>
+      <c r="AN6" s="1"/>
+      <c r="AO6" s="1"/>
+      <c r="AP6" s="1"/>
+      <c r="AQ6" s="1"/>
+    </row>
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="L7" s="1">
+        <v>7</v>
+      </c>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="W7" s="1">
+        <v>7</v>
+      </c>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="1"/>
+      <c r="AC7" s="1"/>
+      <c r="AD7" s="1"/>
+      <c r="AE7" s="1"/>
+      <c r="AF7" s="1"/>
+      <c r="AH7" s="1">
+        <v>7</v>
+      </c>
+      <c r="AI7" s="2"/>
+      <c r="AJ7" s="2"/>
+      <c r="AK7" s="1"/>
+      <c r="AL7" s="1"/>
+      <c r="AM7" s="1"/>
+      <c r="AN7" s="1"/>
+      <c r="AO7" s="1"/>
+      <c r="AP7" s="1"/>
+      <c r="AQ7" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AQ7"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:AQ7"/>
     </sheetView>

--- a/MiningTopKCoOccurrenceItemsConsole/testResults/PreprocessingTimeResult.xlsx
+++ b/MiningTopKCoOccurrenceItemsConsole/testResults/PreprocessingTimeResult.xlsx
@@ -652,8 +652,8 @@
         </c:dropLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1499769520"/>
-        <c:axId val="1499758096"/>
+        <c:axId val="-1258302960"/>
+        <c:axId val="-1258308944"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -885,7 +885,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1499769520"/>
+        <c:axId val="-1258302960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -958,7 +958,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1499758096"/>
+        <c:crossAx val="-1258308944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -966,7 +966,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1499758096"/>
+        <c:axId val="-1258308944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1047,7 +1047,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1499769520"/>
+        <c:crossAx val="-1258302960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>

--- a/MiningTopKCoOccurrenceItemsConsole/testResults/PreprocessingTimeResult.xlsx
+++ b/MiningTopKCoOccurrenceItemsConsole/testResults/PreprocessingTimeResult.xlsx
@@ -652,8 +652,8 @@
         </c:dropLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1258302960"/>
-        <c:axId val="-1258308944"/>
+        <c:axId val="1335697440"/>
+        <c:axId val="1335690912"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -885,7 +885,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1258302960"/>
+        <c:axId val="1335697440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -958,7 +958,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1258308944"/>
+        <c:crossAx val="1335690912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -966,7 +966,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1258308944"/>
+        <c:axId val="1335690912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1047,7 +1047,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1258302960"/>
+        <c:crossAx val="1335697440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>

--- a/MiningTopKCoOccurrenceItemsConsole/testResults/PreprocessingTimeResult.xlsx
+++ b/MiningTopKCoOccurrenceItemsConsole/testResults/PreprocessingTimeResult.xlsx
@@ -652,8 +652,8 @@
         </c:dropLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1335697440"/>
-        <c:axId val="1335690912"/>
+        <c:axId val="-777438640"/>
+        <c:axId val="-777450608"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -885,7 +885,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1335697440"/>
+        <c:axId val="-777438640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -958,7 +958,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1335690912"/>
+        <c:crossAx val="-777450608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -966,7 +966,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1335690912"/>
+        <c:axId val="-777450608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1047,7 +1047,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1335697440"/>
+        <c:crossAx val="-777438640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>

--- a/MiningTopKCoOccurrenceItemsConsole/testResults/PreprocessingTimeResult.xlsx
+++ b/MiningTopKCoOccurrenceItemsConsole/testResults/PreprocessingTimeResult.xlsx
@@ -652,8 +652,8 @@
         </c:dropLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-777438640"/>
-        <c:axId val="-777450608"/>
+        <c:axId val="-1864405680"/>
+        <c:axId val="-1864399152"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -885,7 +885,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-777438640"/>
+        <c:axId val="-1864405680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -958,7 +958,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-777450608"/>
+        <c:crossAx val="-1864399152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -966,7 +966,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-777450608"/>
+        <c:axId val="-1864399152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1047,7 +1047,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-777438640"/>
+        <c:crossAx val="-1864405680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3984,251 +3984,491 @@
       <c r="A3" s="1">
         <v>3</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>3173</v>
+      </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="F3" s="1">
+        <v>79263</v>
+      </c>
       <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
+      <c r="H3" s="1">
+        <v>89391</v>
+      </c>
+      <c r="I3" s="1">
+        <v>3286</v>
+      </c>
+      <c r="J3" s="1">
+        <v>3446</v>
+      </c>
       <c r="L3" s="1">
         <v>3</v>
       </c>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
+      <c r="M3" s="2">
+        <v>0</v>
+      </c>
+      <c r="N3" s="2">
+        <v>3246</v>
+      </c>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
+      <c r="Q3" s="1">
+        <v>78607</v>
+      </c>
       <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
+      <c r="S3" s="1">
+        <v>88867</v>
+      </c>
+      <c r="T3" s="1">
+        <v>3365</v>
+      </c>
+      <c r="U3" s="1">
+        <v>3475</v>
+      </c>
       <c r="W3" s="1">
         <v>3</v>
       </c>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="2"/>
+      <c r="X3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>3231</v>
+      </c>
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
-      <c r="AB3" s="1"/>
+      <c r="AB3" s="1">
+        <v>82955</v>
+      </c>
       <c r="AC3" s="1"/>
-      <c r="AD3" s="1"/>
-      <c r="AE3" s="1"/>
-      <c r="AF3" s="1"/>
+      <c r="AD3" s="1">
+        <v>93983</v>
+      </c>
+      <c r="AE3" s="1">
+        <v>3391</v>
+      </c>
+      <c r="AF3" s="1">
+        <v>3661</v>
+      </c>
       <c r="AH3" s="1">
         <v>3</v>
       </c>
-      <c r="AI3" s="2"/>
-      <c r="AJ3" s="2"/>
+      <c r="AI3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="2">
+        <v>3293</v>
+      </c>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
-      <c r="AM3" s="1"/>
+      <c r="AM3" s="1">
+        <v>79892</v>
+      </c>
       <c r="AN3" s="1"/>
-      <c r="AO3" s="1"/>
-      <c r="AP3" s="1"/>
-      <c r="AQ3" s="1"/>
+      <c r="AO3" s="1">
+        <v>91823</v>
+      </c>
+      <c r="AP3" s="1">
+        <v>3401</v>
+      </c>
+      <c r="AQ3" s="1">
+        <v>3564</v>
+      </c>
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>4</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>3230</v>
+      </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="F4" s="1">
+        <v>81419</v>
+      </c>
       <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
+      <c r="H4" s="1">
+        <v>89247</v>
+      </c>
+      <c r="I4" s="1">
+        <v>3303</v>
+      </c>
+      <c r="J4" s="1">
+        <v>3506</v>
+      </c>
       <c r="L4" s="1">
         <v>4</v>
       </c>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
+      <c r="M4" s="2">
+        <v>0</v>
+      </c>
+      <c r="N4" s="2">
+        <v>3256</v>
+      </c>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
+      <c r="Q4" s="1">
+        <v>78218</v>
+      </c>
       <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
+      <c r="S4" s="1">
+        <v>89250</v>
+      </c>
+      <c r="T4" s="1">
+        <v>3390</v>
+      </c>
+      <c r="U4" s="1">
+        <v>3517</v>
+      </c>
       <c r="W4" s="1">
         <v>4</v>
       </c>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="2"/>
+      <c r="X4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>3269</v>
+      </c>
       <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
-      <c r="AB4" s="1"/>
+      <c r="AB4" s="1">
+        <v>81543</v>
+      </c>
       <c r="AC4" s="1"/>
-      <c r="AD4" s="1"/>
-      <c r="AE4" s="1"/>
-      <c r="AF4" s="1"/>
+      <c r="AD4" s="1">
+        <v>93998</v>
+      </c>
+      <c r="AE4" s="1">
+        <v>3371</v>
+      </c>
+      <c r="AF4" s="1">
+        <v>3592</v>
+      </c>
       <c r="AH4" s="1">
         <v>4</v>
       </c>
-      <c r="AI4" s="2"/>
-      <c r="AJ4" s="2"/>
+      <c r="AI4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="2">
+        <v>3269</v>
+      </c>
       <c r="AK4" s="1"/>
       <c r="AL4" s="1"/>
-      <c r="AM4" s="1"/>
+      <c r="AM4" s="1">
+        <v>80545</v>
+      </c>
       <c r="AN4" s="1"/>
-      <c r="AO4" s="1"/>
-      <c r="AP4" s="1"/>
-      <c r="AQ4" s="1"/>
+      <c r="AO4" s="1">
+        <v>92219</v>
+      </c>
+      <c r="AP4" s="1">
+        <v>3363</v>
+      </c>
+      <c r="AQ4" s="1">
+        <v>3469</v>
+      </c>
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>5</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>3217</v>
+      </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="F5" s="1">
+        <v>78705</v>
+      </c>
       <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
+      <c r="H5" s="1">
+        <v>89182</v>
+      </c>
+      <c r="I5" s="1">
+        <v>3328</v>
+      </c>
+      <c r="J5" s="1">
+        <v>3508</v>
+      </c>
       <c r="L5" s="1">
         <v>5</v>
       </c>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
+      <c r="M5" s="2">
+        <v>0</v>
+      </c>
+      <c r="N5" s="2">
+        <v>3275</v>
+      </c>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
+      <c r="Q5" s="1">
+        <v>77852</v>
+      </c>
       <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
+      <c r="S5" s="1">
+        <v>89582</v>
+      </c>
+      <c r="T5" s="1">
+        <v>3323</v>
+      </c>
+      <c r="U5" s="1">
+        <v>3503</v>
+      </c>
       <c r="W5" s="1">
         <v>5</v>
       </c>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="2"/>
+      <c r="X5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>3241</v>
+      </c>
       <c r="Z5" s="1"/>
       <c r="AA5" s="1"/>
-      <c r="AB5" s="1"/>
+      <c r="AB5" s="1">
+        <v>81384</v>
+      </c>
       <c r="AC5" s="1"/>
-      <c r="AD5" s="1"/>
-      <c r="AE5" s="1"/>
-      <c r="AF5" s="1"/>
+      <c r="AD5" s="1">
+        <v>93860</v>
+      </c>
+      <c r="AE5" s="1">
+        <v>3336</v>
+      </c>
+      <c r="AF5" s="1">
+        <v>3574</v>
+      </c>
       <c r="AH5" s="1">
         <v>5</v>
       </c>
-      <c r="AI5" s="2"/>
-      <c r="AJ5" s="2"/>
+      <c r="AI5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="2">
+        <v>3219</v>
+      </c>
       <c r="AK5" s="1"/>
       <c r="AL5" s="1"/>
-      <c r="AM5" s="1"/>
+      <c r="AM5" s="1">
+        <v>80847</v>
+      </c>
       <c r="AN5" s="1"/>
-      <c r="AO5" s="1"/>
-      <c r="AP5" s="1"/>
-      <c r="AQ5" s="1"/>
+      <c r="AO5" s="1">
+        <v>92284</v>
+      </c>
+      <c r="AP5" s="1">
+        <v>3350</v>
+      </c>
+      <c r="AQ5" s="1">
+        <v>3348</v>
+      </c>
     </row>
     <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>6</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>3233</v>
+      </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="F6" s="1">
+        <v>78422</v>
+      </c>
       <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
+      <c r="H6" s="1">
+        <v>89287</v>
+      </c>
+      <c r="I6" s="1">
+        <v>3302</v>
+      </c>
+      <c r="J6" s="1">
+        <v>3541</v>
+      </c>
       <c r="L6" s="1">
         <v>6</v>
       </c>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
+      <c r="M6" s="2">
+        <v>0</v>
+      </c>
+      <c r="N6" s="2">
+        <v>3247</v>
+      </c>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
+      <c r="Q6" s="1">
+        <v>78484</v>
+      </c>
       <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
+      <c r="S6" s="1">
+        <v>89807</v>
+      </c>
+      <c r="T6" s="1">
+        <v>3318</v>
+      </c>
+      <c r="U6" s="1">
+        <v>3567</v>
+      </c>
       <c r="W6" s="1">
         <v>6</v>
       </c>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="2"/>
+      <c r="X6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>3282</v>
+      </c>
       <c r="Z6" s="1"/>
       <c r="AA6" s="1"/>
-      <c r="AB6" s="1"/>
+      <c r="AB6" s="1">
+        <v>79515</v>
+      </c>
       <c r="AC6" s="1"/>
-      <c r="AD6" s="1"/>
-      <c r="AE6" s="1"/>
-      <c r="AF6" s="1"/>
+      <c r="AD6" s="1">
+        <v>91627</v>
+      </c>
+      <c r="AE6" s="1">
+        <v>3344</v>
+      </c>
+      <c r="AF6" s="1">
+        <v>3550</v>
+      </c>
       <c r="AH6" s="1">
         <v>6</v>
       </c>
-      <c r="AI6" s="2"/>
-      <c r="AJ6" s="2"/>
+      <c r="AI6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="2">
+        <v>3300</v>
+      </c>
       <c r="AK6" s="1"/>
       <c r="AL6" s="1"/>
-      <c r="AM6" s="1"/>
+      <c r="AM6" s="1">
+        <v>79939</v>
+      </c>
       <c r="AN6" s="1"/>
-      <c r="AO6" s="1"/>
-      <c r="AP6" s="1"/>
-      <c r="AQ6" s="1"/>
+      <c r="AO6" s="1">
+        <v>92333</v>
+      </c>
+      <c r="AP6" s="1">
+        <v>3339</v>
+      </c>
+      <c r="AQ6" s="1">
+        <v>3456</v>
+      </c>
     </row>
     <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>7</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>3251</v>
+      </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="F7" s="1">
+        <v>76533</v>
+      </c>
       <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
+      <c r="H7" s="1">
+        <v>89071</v>
+      </c>
+      <c r="I7" s="1">
+        <v>3372</v>
+      </c>
+      <c r="J7" s="1">
+        <v>3576</v>
+      </c>
       <c r="L7" s="1">
         <v>7</v>
       </c>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
+      <c r="M7" s="2">
+        <v>0</v>
+      </c>
+      <c r="N7" s="2">
+        <v>3269</v>
+      </c>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
+      <c r="Q7" s="1">
+        <v>80775</v>
+      </c>
       <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
+      <c r="S7" s="1">
+        <v>93226</v>
+      </c>
+      <c r="T7" s="1">
+        <v>3365</v>
+      </c>
+      <c r="U7" s="1">
+        <v>3507</v>
+      </c>
       <c r="W7" s="1">
         <v>7</v>
       </c>
-      <c r="X7" s="1"/>
-      <c r="Y7" s="2"/>
+      <c r="X7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="2">
+        <v>3263</v>
+      </c>
       <c r="Z7" s="1"/>
       <c r="AA7" s="1"/>
-      <c r="AB7" s="1"/>
+      <c r="AB7" s="1">
+        <v>78815</v>
+      </c>
       <c r="AC7" s="1"/>
-      <c r="AD7" s="1"/>
-      <c r="AE7" s="1"/>
-      <c r="AF7" s="1"/>
+      <c r="AD7" s="1">
+        <v>91456</v>
+      </c>
+      <c r="AE7" s="1">
+        <v>3392</v>
+      </c>
+      <c r="AF7" s="1">
+        <v>3575</v>
+      </c>
       <c r="AH7" s="1">
         <v>7</v>
       </c>
-      <c r="AI7" s="2"/>
-      <c r="AJ7" s="2"/>
+      <c r="AI7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="2">
+        <v>3254</v>
+      </c>
       <c r="AK7" s="1"/>
       <c r="AL7" s="1"/>
-      <c r="AM7" s="1"/>
+      <c r="AM7" s="1">
+        <v>79796</v>
+      </c>
       <c r="AN7" s="1"/>
-      <c r="AO7" s="1"/>
-      <c r="AP7" s="1"/>
-      <c r="AQ7" s="1"/>
+      <c r="AO7" s="1">
+        <v>93941</v>
+      </c>
+      <c r="AP7" s="1">
+        <v>3307</v>
+      </c>
+      <c r="AQ7" s="1">
+        <v>3400</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/MiningTopKCoOccurrenceItemsConsole/testResults/PreprocessingTimeResult.xlsx
+++ b/MiningTopKCoOccurrenceItemsConsole/testResults/PreprocessingTimeResult.xlsx
@@ -207,19 +207,19 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>655</c:v>
+                  <c:v>365</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>759</c:v>
+                  <c:v>369</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>770</c:v>
+                  <c:v>373</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>765</c:v>
+                  <c:v>374</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>779</c:v>
+                  <c:v>382</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -399,19 +399,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>4994</c:v>
+                  <c:v>4685</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5043</c:v>
+                  <c:v>4548</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5052</c:v>
+                  <c:v>4397</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5037</c:v>
+                  <c:v>4386</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5052</c:v>
+                  <c:v>4384</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -469,19 +469,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1732</c:v>
+                  <c:v>1564</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1735</c:v>
+                  <c:v>1547</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1736</c:v>
+                  <c:v>1570</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1759</c:v>
+                  <c:v>1557</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1760</c:v>
+                  <c:v>1551</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -539,19 +539,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1003</c:v>
+                  <c:v>870</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>898</c:v>
+                  <c:v>773</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>754</c:v>
+                  <c:v>654</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>658</c:v>
+                  <c:v>569</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>619</c:v>
+                  <c:v>525</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -609,19 +609,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1002</c:v>
+                  <c:v>909</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>892</c:v>
+                  <c:v>833</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>768</c:v>
+                  <c:v>687</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>671</c:v>
+                  <c:v>581</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>628</c:v>
+                  <c:v>523</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -652,8 +652,8 @@
         </c:dropLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1864405680"/>
-        <c:axId val="-1864399152"/>
+        <c:axId val="191339680"/>
+        <c:axId val="191345120"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -885,7 +885,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1864405680"/>
+        <c:axId val="191339680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -958,7 +958,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1864399152"/>
+        <c:crossAx val="191345120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -966,7 +966,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1864399152"/>
+        <c:axId val="191345120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1047,7 +1047,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1864405680"/>
+        <c:crossAx val="191339680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2150,7 +2150,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="2">
-        <v>655</v>
+        <v>365</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>
@@ -2159,17 +2159,17 @@
         <v>410</v>
       </c>
       <c r="F3" s="1">
-        <v>4994</v>
+        <v>4685</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1">
-        <v>1732</v>
+        <v>1564</v>
       </c>
       <c r="I3" s="1">
-        <v>1003</v>
+        <v>870</v>
       </c>
       <c r="J3" s="1">
-        <v>1002</v>
+        <v>909</v>
       </c>
       <c r="L3" s="1">
         <v>3</v>
@@ -2178,7 +2178,7 @@
         <v>0</v>
       </c>
       <c r="N3" s="2">
-        <v>766</v>
+        <v>375</v>
       </c>
       <c r="O3" s="1">
         <v>0</v>
@@ -2187,17 +2187,17 @@
         <v>413</v>
       </c>
       <c r="Q3" s="1">
-        <v>5026</v>
+        <v>4381</v>
       </c>
       <c r="R3" s="1"/>
       <c r="S3" s="1">
-        <v>1748</v>
+        <v>1564</v>
       </c>
       <c r="T3" s="1">
-        <v>1025</v>
+        <v>858</v>
       </c>
       <c r="U3" s="1">
-        <v>998</v>
+        <v>860</v>
       </c>
       <c r="W3" s="1">
         <v>3</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="Y3" s="2">
-        <v>762</v>
+        <v>365</v>
       </c>
       <c r="Z3" s="1">
         <v>0</v>
@@ -2215,17 +2215,17 @@
         <v>410</v>
       </c>
       <c r="AB3" s="1">
-        <v>5011</v>
+        <v>4422</v>
       </c>
       <c r="AC3" s="1"/>
       <c r="AD3" s="1">
-        <v>1764</v>
+        <v>1561</v>
       </c>
       <c r="AE3" s="1">
-        <v>1018</v>
+        <v>927</v>
       </c>
       <c r="AF3" s="1">
-        <v>1005</v>
+        <v>860</v>
       </c>
       <c r="AH3" s="1">
         <v>3</v>
@@ -2234,7 +2234,7 @@
         <v>0</v>
       </c>
       <c r="AJ3" s="2">
-        <v>764</v>
+        <v>372</v>
       </c>
       <c r="AK3" s="1">
         <v>0</v>
@@ -2243,17 +2243,17 @@
         <v>410</v>
       </c>
       <c r="AM3" s="1">
-        <v>5035</v>
+        <v>4454</v>
       </c>
       <c r="AN3" s="1"/>
       <c r="AO3" s="1">
-        <v>1997</v>
+        <v>1560</v>
       </c>
       <c r="AP3" s="1">
-        <v>1007</v>
+        <v>925</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1003</v>
+        <v>869</v>
       </c>
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.25">
@@ -2264,7 +2264,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="2">
-        <v>759</v>
+        <v>369</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
@@ -2273,17 +2273,17 @@
         <v>402</v>
       </c>
       <c r="F4" s="1">
-        <v>5043</v>
+        <v>4548</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1">
-        <v>1735</v>
+        <v>1547</v>
       </c>
       <c r="I4" s="1">
-        <v>898</v>
+        <v>773</v>
       </c>
       <c r="J4" s="1">
-        <v>892</v>
+        <v>833</v>
       </c>
       <c r="L4" s="1">
         <v>4</v>
@@ -2292,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="N4" s="2">
-        <v>761</v>
+        <v>374</v>
       </c>
       <c r="O4" s="1">
         <v>0</v>
@@ -2301,17 +2301,17 @@
         <v>407</v>
       </c>
       <c r="Q4" s="1">
-        <v>5016</v>
+        <v>4388</v>
       </c>
       <c r="R4" s="1"/>
       <c r="S4" s="1">
-        <v>1753</v>
+        <v>1567</v>
       </c>
       <c r="T4" s="1">
-        <v>904</v>
+        <v>789</v>
       </c>
       <c r="U4" s="1">
-        <v>899</v>
+        <v>772</v>
       </c>
       <c r="W4" s="1">
         <v>4</v>
@@ -2320,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="Y4" s="2">
-        <v>762</v>
+        <v>372</v>
       </c>
       <c r="Z4" s="1">
         <v>0</v>
@@ -2329,17 +2329,17 @@
         <v>410</v>
       </c>
       <c r="AB4" s="1">
-        <v>5001</v>
+        <v>4406</v>
       </c>
       <c r="AC4" s="1"/>
       <c r="AD4" s="1">
-        <v>1737</v>
+        <v>1576</v>
       </c>
       <c r="AE4" s="1">
-        <v>907</v>
+        <v>825</v>
       </c>
       <c r="AF4" s="1">
-        <v>900</v>
+        <v>777</v>
       </c>
       <c r="AH4" s="1">
         <v>4</v>
@@ -2348,7 +2348,7 @@
         <v>0</v>
       </c>
       <c r="AJ4" s="2">
-        <v>765</v>
+        <v>373</v>
       </c>
       <c r="AK4" s="1">
         <v>0</v>
@@ -2357,17 +2357,17 @@
         <v>398</v>
       </c>
       <c r="AM4" s="1">
-        <v>5005</v>
+        <v>4433</v>
       </c>
       <c r="AN4" s="1"/>
       <c r="AO4" s="1">
-        <v>1733</v>
+        <v>1563</v>
       </c>
       <c r="AP4" s="1">
-        <v>911</v>
+        <v>771</v>
       </c>
       <c r="AQ4" s="1">
-        <v>898</v>
+        <v>798</v>
       </c>
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.25">
@@ -2378,7 +2378,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="2">
-        <v>770</v>
+        <v>373</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
@@ -2387,17 +2387,17 @@
         <v>423</v>
       </c>
       <c r="F5" s="1">
-        <v>5052</v>
+        <v>4397</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1">
-        <v>1736</v>
+        <v>1570</v>
       </c>
       <c r="I5" s="1">
-        <v>754</v>
+        <v>654</v>
       </c>
       <c r="J5" s="1">
-        <v>768</v>
+        <v>687</v>
       </c>
       <c r="L5" s="1">
         <v>5</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="N5" s="2">
-        <v>772</v>
+        <v>402</v>
       </c>
       <c r="O5" s="1">
         <v>0</v>
@@ -2415,17 +2415,17 @@
         <v>405</v>
       </c>
       <c r="Q5" s="1">
-        <v>4995</v>
+        <v>4380</v>
       </c>
       <c r="R5" s="1"/>
       <c r="S5" s="1">
-        <v>1766</v>
+        <v>1559</v>
       </c>
       <c r="T5" s="1">
-        <v>774</v>
+        <v>720</v>
       </c>
       <c r="U5" s="1">
-        <v>751</v>
+        <v>661</v>
       </c>
       <c r="W5" s="1">
         <v>5</v>
@@ -2434,7 +2434,7 @@
         <v>0</v>
       </c>
       <c r="Y5" s="2">
-        <v>768</v>
+        <v>378</v>
       </c>
       <c r="Z5" s="1">
         <v>0</v>
@@ -2443,17 +2443,17 @@
         <v>420</v>
       </c>
       <c r="AB5" s="1">
-        <v>5000</v>
+        <v>4417</v>
       </c>
       <c r="AC5" s="1"/>
       <c r="AD5" s="1">
-        <v>1751</v>
+        <v>1568</v>
       </c>
       <c r="AE5" s="1">
-        <v>766</v>
+        <v>692</v>
       </c>
       <c r="AF5" s="1">
-        <v>756</v>
+        <v>655</v>
       </c>
       <c r="AH5" s="1">
         <v>5</v>
@@ -2462,7 +2462,7 @@
         <v>0</v>
       </c>
       <c r="AJ5" s="2">
-        <v>767</v>
+        <v>373</v>
       </c>
       <c r="AK5" s="1">
         <v>0</v>
@@ -2471,17 +2471,17 @@
         <v>408</v>
       </c>
       <c r="AM5" s="1">
-        <v>5003</v>
+        <v>4422</v>
       </c>
       <c r="AN5" s="1"/>
       <c r="AO5" s="1">
-        <v>1726</v>
+        <v>1559</v>
       </c>
       <c r="AP5" s="1">
-        <v>780</v>
+        <v>662</v>
       </c>
       <c r="AQ5" s="1">
-        <v>761</v>
+        <v>670</v>
       </c>
     </row>
     <row r="6" spans="1:43" x14ac:dyDescent="0.25">
@@ -2492,7 +2492,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="2">
-        <v>765</v>
+        <v>374</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
@@ -2501,17 +2501,17 @@
         <v>402</v>
       </c>
       <c r="F6" s="1">
-        <v>5037</v>
+        <v>4386</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1">
-        <v>1759</v>
+        <v>1557</v>
       </c>
       <c r="I6" s="1">
-        <v>658</v>
+        <v>569</v>
       </c>
       <c r="J6" s="1">
-        <v>671</v>
+        <v>581</v>
       </c>
       <c r="L6" s="1">
         <v>6</v>
@@ -2520,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="N6" s="2">
-        <v>781</v>
+        <v>375</v>
       </c>
       <c r="O6" s="1">
         <v>0</v>
@@ -2529,17 +2529,17 @@
         <v>416</v>
       </c>
       <c r="Q6" s="1">
-        <v>4973</v>
+        <v>4393</v>
       </c>
       <c r="R6" s="1"/>
       <c r="S6" s="1">
-        <v>1732</v>
+        <v>1557</v>
       </c>
       <c r="T6" s="1">
-        <v>682</v>
+        <v>633</v>
       </c>
       <c r="U6" s="1">
-        <v>661</v>
+        <v>570</v>
       </c>
       <c r="W6" s="1">
         <v>6</v>
@@ -2548,7 +2548,7 @@
         <v>0</v>
       </c>
       <c r="Y6" s="2">
-        <v>765</v>
+        <v>376</v>
       </c>
       <c r="Z6" s="1">
         <v>0</v>
@@ -2557,17 +2557,17 @@
         <v>416</v>
       </c>
       <c r="AB6" s="1">
-        <v>4984</v>
+        <v>4407</v>
       </c>
       <c r="AC6" s="1"/>
       <c r="AD6" s="1">
-        <v>1750</v>
+        <v>1571</v>
       </c>
       <c r="AE6" s="1">
-        <v>677</v>
+        <v>625</v>
       </c>
       <c r="AF6" s="1">
-        <v>667</v>
+        <v>571</v>
       </c>
       <c r="AH6" s="1">
         <v>6</v>
@@ -2576,7 +2576,7 @@
         <v>0</v>
       </c>
       <c r="AJ6" s="2">
-        <v>764</v>
+        <v>374</v>
       </c>
       <c r="AK6" s="1">
         <v>0</v>
@@ -2585,17 +2585,17 @@
         <v>409</v>
       </c>
       <c r="AM6" s="1">
-        <v>5047</v>
+        <v>4400</v>
       </c>
       <c r="AN6" s="1"/>
       <c r="AO6" s="1">
-        <v>1730</v>
+        <v>1556</v>
       </c>
       <c r="AP6" s="1">
-        <v>683</v>
+        <v>609</v>
       </c>
       <c r="AQ6" s="1">
-        <v>669</v>
+        <v>582</v>
       </c>
     </row>
     <row r="7" spans="1:43" x14ac:dyDescent="0.25">
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="2">
-        <v>779</v>
+        <v>382</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
@@ -2615,17 +2615,17 @@
         <v>406</v>
       </c>
       <c r="F7" s="1">
-        <v>5052</v>
+        <v>4384</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1">
-        <v>1760</v>
+        <v>1551</v>
       </c>
       <c r="I7" s="1">
-        <v>619</v>
+        <v>525</v>
       </c>
       <c r="J7" s="1">
-        <v>628</v>
+        <v>523</v>
       </c>
       <c r="L7" s="1">
         <v>7</v>
@@ -2634,7 +2634,7 @@
         <v>0</v>
       </c>
       <c r="N7" s="2">
-        <v>775</v>
+        <v>381</v>
       </c>
       <c r="O7" s="1">
         <v>0</v>
@@ -2643,17 +2643,17 @@
         <v>430</v>
       </c>
       <c r="Q7" s="1">
-        <v>4991</v>
+        <v>4394</v>
       </c>
       <c r="R7" s="1"/>
       <c r="S7" s="1">
-        <v>1748</v>
+        <v>1572</v>
       </c>
       <c r="T7" s="1">
-        <v>636</v>
+        <v>589</v>
       </c>
       <c r="U7" s="1">
-        <v>621</v>
+        <v>519</v>
       </c>
       <c r="W7" s="1">
         <v>7</v>
@@ -2662,7 +2662,7 @@
         <v>0</v>
       </c>
       <c r="Y7" s="2">
-        <v>778</v>
+        <v>377</v>
       </c>
       <c r="Z7" s="1">
         <v>0</v>
@@ -2671,17 +2671,17 @@
         <v>418</v>
       </c>
       <c r="AB7" s="1">
-        <v>5013</v>
+        <v>4469</v>
       </c>
       <c r="AC7" s="1"/>
       <c r="AD7" s="1">
-        <v>1814</v>
+        <v>1575</v>
       </c>
       <c r="AE7" s="1">
-        <v>620</v>
+        <v>580</v>
       </c>
       <c r="AF7" s="1">
-        <v>619</v>
+        <v>522</v>
       </c>
       <c r="AH7" s="1">
         <v>7</v>
@@ -2690,7 +2690,7 @@
         <v>0</v>
       </c>
       <c r="AJ7" s="2">
-        <v>764</v>
+        <v>373</v>
       </c>
       <c r="AK7" s="1">
         <v>0</v>
@@ -2699,17 +2699,17 @@
         <v>426</v>
       </c>
       <c r="AM7" s="1">
-        <v>5113</v>
+        <v>4408</v>
       </c>
       <c r="AN7" s="1"/>
       <c r="AO7" s="1">
-        <v>1739</v>
+        <v>1563</v>
       </c>
       <c r="AP7" s="1">
-        <v>616</v>
+        <v>563</v>
       </c>
       <c r="AQ7" s="1">
-        <v>624</v>
+        <v>526</v>
       </c>
     </row>
   </sheetData>
@@ -2882,7 +2882,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="2">
-        <v>2602</v>
+        <v>1629</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>
@@ -2891,17 +2891,17 @@
         <v>1790</v>
       </c>
       <c r="F3" s="1">
-        <v>27004</v>
+        <v>22563</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1">
-        <v>10569</v>
+        <v>8098</v>
       </c>
       <c r="I3" s="1">
-        <v>3618</v>
+        <v>3409</v>
       </c>
       <c r="J3" s="1">
-        <v>3591</v>
+        <v>3344</v>
       </c>
       <c r="L3" s="1">
         <v>3</v>
@@ -2910,7 +2910,7 @@
         <v>0</v>
       </c>
       <c r="N3" s="2">
-        <v>27023</v>
+        <v>1652</v>
       </c>
       <c r="O3" s="1">
         <v>0</v>
@@ -2919,17 +2919,17 @@
         <v>1709</v>
       </c>
       <c r="Q3" s="1">
-        <v>22186</v>
+        <v>22807</v>
       </c>
       <c r="R3" s="1"/>
       <c r="S3" s="1">
-        <v>9119</v>
+        <v>8089</v>
       </c>
       <c r="T3" s="1">
-        <v>3666</v>
+        <v>3516</v>
       </c>
       <c r="U3" s="1">
-        <v>3863</v>
+        <v>3411</v>
       </c>
       <c r="W3" s="1">
         <v>3</v>
@@ -2938,7 +2938,7 @@
         <v>0</v>
       </c>
       <c r="Y3" s="2">
-        <v>2666</v>
+        <v>1667</v>
       </c>
       <c r="Z3" s="1">
         <v>0</v>
@@ -2947,17 +2947,17 @@
         <v>1769</v>
       </c>
       <c r="AB3" s="1">
-        <v>25353</v>
+        <v>292058</v>
       </c>
       <c r="AC3" s="1"/>
       <c r="AD3" s="1">
-        <v>9108</v>
+        <v>8091</v>
       </c>
       <c r="AE3" s="1">
-        <v>3660</v>
+        <v>3324</v>
       </c>
       <c r="AF3" s="1">
-        <v>3598</v>
+        <v>3470</v>
       </c>
       <c r="AH3" s="1">
         <v>3</v>
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="AJ3" s="2">
-        <v>2670</v>
+        <v>1889</v>
       </c>
       <c r="AK3" s="1">
         <v>0</v>
@@ -2975,17 +2975,17 @@
         <v>1727</v>
       </c>
       <c r="AM3" s="1">
-        <v>22173</v>
+        <v>22494</v>
       </c>
       <c r="AN3" s="1"/>
       <c r="AO3" s="1">
-        <v>9153</v>
+        <v>8116</v>
       </c>
       <c r="AP3" s="1">
-        <v>3674</v>
+        <v>3336</v>
       </c>
       <c r="AQ3" s="1">
-        <v>3575</v>
+        <v>3414</v>
       </c>
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.25">
@@ -2996,7 +2996,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="2">
-        <v>2711</v>
+        <v>1679</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
@@ -3005,17 +3005,17 @@
         <v>1754</v>
       </c>
       <c r="F4" s="1">
-        <v>23556</v>
+        <v>22862</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1">
-        <v>10118</v>
+        <v>8117</v>
       </c>
       <c r="I4" s="1">
-        <v>3026</v>
+        <v>2805</v>
       </c>
       <c r="J4" s="1">
-        <v>2990</v>
+        <v>2794</v>
       </c>
       <c r="L4" s="1">
         <v>4</v>
@@ -3024,7 +3024,7 @@
         <v>0</v>
       </c>
       <c r="N4" s="2">
-        <v>2689</v>
+        <v>1681</v>
       </c>
       <c r="O4" s="1">
         <v>0</v>
@@ -3033,17 +3033,17 @@
         <v>1744</v>
       </c>
       <c r="Q4" s="1">
-        <v>22294</v>
+        <v>22738</v>
       </c>
       <c r="R4" s="1"/>
       <c r="S4" s="1">
-        <v>9092</v>
+        <v>8089</v>
       </c>
       <c r="T4" s="1">
-        <v>3013</v>
+        <v>2706</v>
       </c>
       <c r="U4" s="1">
-        <v>3069</v>
+        <v>2804</v>
       </c>
       <c r="W4" s="1">
         <v>4</v>
@@ -3052,7 +3052,7 @@
         <v>0</v>
       </c>
       <c r="Y4" s="2">
-        <v>2730</v>
+        <v>1827</v>
       </c>
       <c r="Z4" s="1">
         <v>0</v>
@@ -3061,17 +3061,17 @@
         <v>1833</v>
       </c>
       <c r="AB4" s="1">
-        <v>22223</v>
+        <v>25987</v>
       </c>
       <c r="AC4" s="1"/>
       <c r="AD4" s="1">
-        <v>9097</v>
+        <v>8108</v>
       </c>
       <c r="AE4" s="1">
-        <v>3006</v>
+        <v>2746</v>
       </c>
       <c r="AF4" s="1">
-        <v>2976</v>
+        <v>2854</v>
       </c>
       <c r="AH4" s="1">
         <v>4</v>
@@ -3080,7 +3080,7 @@
         <v>0</v>
       </c>
       <c r="AJ4" s="2">
-        <v>2720</v>
+        <v>1977</v>
       </c>
       <c r="AK4" s="1">
         <v>0</v>
@@ -3089,17 +3089,17 @@
         <v>1811</v>
       </c>
       <c r="AM4" s="1">
-        <v>22042</v>
+        <v>22394</v>
       </c>
       <c r="AN4" s="1"/>
       <c r="AO4" s="1">
-        <v>9135</v>
+        <v>8131</v>
       </c>
       <c r="AP4" s="1">
-        <v>2991</v>
+        <v>2719</v>
       </c>
       <c r="AQ4" s="1">
-        <v>2989</v>
+        <v>2808</v>
       </c>
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.25">
@@ -3110,7 +3110,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="2">
-        <v>2733</v>
+        <v>1719</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
@@ -3119,17 +3119,17 @@
         <v>1787</v>
       </c>
       <c r="F5" s="1">
-        <v>22316</v>
+        <v>22755</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1">
-        <v>9164</v>
+        <v>8114</v>
       </c>
       <c r="I5" s="1">
-        <v>2704</v>
+        <v>2749</v>
       </c>
       <c r="J5" s="1">
-        <v>2689</v>
+        <v>2556</v>
       </c>
       <c r="L5" s="1">
         <v>5</v>
@@ -3138,7 +3138,7 @@
         <v>0</v>
       </c>
       <c r="N5" s="2">
-        <v>2784</v>
+        <v>1713</v>
       </c>
       <c r="O5" s="1">
         <v>0</v>
@@ -3147,17 +3147,17 @@
         <v>1778</v>
       </c>
       <c r="Q5" s="1">
-        <v>22191</v>
+        <v>22600</v>
       </c>
       <c r="R5" s="1"/>
       <c r="S5" s="1">
-        <v>9115</v>
+        <v>8106</v>
       </c>
       <c r="T5" s="1">
-        <v>2688</v>
+        <v>2449</v>
       </c>
       <c r="U5" s="1">
-        <v>2648</v>
+        <v>2564</v>
       </c>
       <c r="W5" s="1">
         <v>5</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="Y5" s="2">
-        <v>2770</v>
+        <v>1830</v>
       </c>
       <c r="Z5" s="1">
         <v>0</v>
@@ -3175,17 +3175,17 @@
         <v>1752</v>
       </c>
       <c r="AB5" s="1">
-        <v>22169</v>
+        <v>22523</v>
       </c>
       <c r="AC5" s="1"/>
       <c r="AD5" s="1">
-        <v>9117</v>
+        <v>8123</v>
       </c>
       <c r="AE5" s="1">
-        <v>2698</v>
+        <v>2432</v>
       </c>
       <c r="AF5" s="1">
-        <v>2661</v>
+        <v>2516</v>
       </c>
       <c r="AH5" s="1">
         <v>5</v>
@@ -3194,7 +3194,7 @@
         <v>0</v>
       </c>
       <c r="AJ5" s="2">
-        <v>2769</v>
+        <v>2089</v>
       </c>
       <c r="AK5" s="1">
         <v>0</v>
@@ -3203,17 +3203,17 @@
         <v>1767</v>
       </c>
       <c r="AM5" s="1">
-        <v>21905</v>
+        <v>22389</v>
       </c>
       <c r="AN5" s="1"/>
       <c r="AO5" s="1">
-        <v>9123</v>
+        <v>8143</v>
       </c>
       <c r="AP5" s="1">
-        <v>2716</v>
+        <v>2431</v>
       </c>
       <c r="AQ5" s="1">
-        <v>2651</v>
+        <v>2548</v>
       </c>
     </row>
     <row r="6" spans="1:43" x14ac:dyDescent="0.25">
@@ -3224,7 +3224,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="2">
-        <v>2756</v>
+        <v>1759</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
@@ -3233,17 +3233,17 @@
         <v>1804</v>
       </c>
       <c r="F6" s="1">
-        <v>22231</v>
+        <v>22783</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1">
-        <v>9103</v>
+        <v>8091</v>
       </c>
       <c r="I6" s="1">
-        <v>2488</v>
+        <v>2514</v>
       </c>
       <c r="J6" s="1">
-        <v>2521</v>
+        <v>2346</v>
       </c>
       <c r="L6" s="1">
         <v>6</v>
@@ -3252,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="N6" s="2">
-        <v>2766</v>
+        <v>1767</v>
       </c>
       <c r="O6" s="1">
         <v>0</v>
@@ -3261,17 +3261,17 @@
         <v>1801</v>
       </c>
       <c r="Q6" s="1">
-        <v>22176</v>
+        <v>23825</v>
       </c>
       <c r="R6" s="1"/>
       <c r="S6" s="1">
-        <v>9125</v>
+        <v>8089</v>
       </c>
       <c r="T6" s="1">
-        <v>2479</v>
+        <v>2208</v>
       </c>
       <c r="U6" s="1">
-        <v>2419</v>
+        <v>2335</v>
       </c>
       <c r="W6" s="1">
         <v>6</v>
@@ -3280,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="Y6" s="2">
-        <v>2748</v>
+        <v>1923</v>
       </c>
       <c r="Z6" s="1">
         <v>0</v>
@@ -3289,17 +3289,17 @@
         <v>1796</v>
       </c>
       <c r="AB6" s="1">
-        <v>22162</v>
+        <v>22532</v>
       </c>
       <c r="AC6" s="1"/>
       <c r="AD6" s="1">
-        <v>9100</v>
+        <v>8129</v>
       </c>
       <c r="AE6" s="1">
-        <v>2445</v>
+        <v>2214</v>
       </c>
       <c r="AF6" s="1">
-        <v>2454</v>
+        <v>2377</v>
       </c>
       <c r="AH6" s="1">
         <v>6</v>
@@ -3308,7 +3308,7 @@
         <v>0</v>
       </c>
       <c r="AJ6" s="2">
-        <v>2826</v>
+        <v>1810</v>
       </c>
       <c r="AK6" s="1">
         <v>0</v>
@@ -3317,17 +3317,17 @@
         <v>1790</v>
       </c>
       <c r="AM6" s="1">
-        <v>24347</v>
+        <v>22543</v>
       </c>
       <c r="AN6" s="1"/>
       <c r="AO6" s="1">
-        <v>9102</v>
+        <v>8126</v>
       </c>
       <c r="AP6" s="1">
-        <v>2630</v>
+        <v>2200</v>
       </c>
       <c r="AQ6" s="1">
-        <v>2516</v>
+        <v>2333</v>
       </c>
     </row>
     <row r="7" spans="1:43" x14ac:dyDescent="0.25">
@@ -3338,7 +3338,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="2">
-        <v>2768</v>
+        <v>1763</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
@@ -3347,17 +3347,17 @@
         <v>1838</v>
       </c>
       <c r="F7" s="1">
-        <v>22211</v>
+        <v>22776</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1">
-        <v>9118</v>
+        <v>8077</v>
       </c>
       <c r="I7" s="1">
-        <v>2119</v>
+        <v>2292</v>
       </c>
       <c r="J7" s="1">
-        <v>2260</v>
+        <v>2070</v>
       </c>
       <c r="L7" s="1">
         <v>7</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="N7" s="2">
-        <v>2765</v>
+        <v>1768</v>
       </c>
       <c r="O7" s="1">
         <v>0</v>
@@ -3375,17 +3375,17 @@
         <v>2334</v>
       </c>
       <c r="Q7" s="1">
-        <v>22190</v>
+        <v>22474</v>
       </c>
       <c r="R7" s="1"/>
       <c r="S7" s="1">
-        <v>9163</v>
+        <v>8119</v>
       </c>
       <c r="T7" s="1">
-        <v>2158</v>
+        <v>1937</v>
       </c>
       <c r="U7" s="1">
-        <v>2129</v>
+        <v>2168</v>
       </c>
       <c r="W7" s="1">
         <v>7</v>
@@ -3394,7 +3394,7 @@
         <v>0</v>
       </c>
       <c r="Y7" s="2">
-        <v>2773</v>
+        <v>1927</v>
       </c>
       <c r="Z7" s="1">
         <v>0</v>
@@ -3403,17 +3403,17 @@
         <v>1805</v>
       </c>
       <c r="AB7" s="1">
-        <v>22174</v>
+        <v>22447</v>
       </c>
       <c r="AC7" s="1"/>
       <c r="AD7" s="1">
-        <v>9157</v>
+        <v>8118</v>
       </c>
       <c r="AE7" s="1">
-        <v>2161</v>
+        <v>1949</v>
       </c>
       <c r="AF7" s="1">
-        <v>2123</v>
+        <v>2053</v>
       </c>
       <c r="AH7" s="1">
         <v>7</v>
@@ -3422,7 +3422,7 @@
         <v>0</v>
       </c>
       <c r="AJ7" s="2">
-        <v>2912</v>
+        <v>2021</v>
       </c>
       <c r="AK7" s="1">
         <v>0</v>
@@ -3431,17 +3431,17 @@
         <v>1805</v>
       </c>
       <c r="AM7" s="1">
-        <v>24624</v>
+        <v>22444</v>
       </c>
       <c r="AN7" s="1"/>
       <c r="AO7" s="1">
-        <v>9092</v>
+        <v>8118</v>
       </c>
       <c r="AP7" s="1">
-        <v>2288</v>
+        <v>1958</v>
       </c>
       <c r="AQ7" s="1">
-        <v>2133</v>
+        <v>2052</v>
       </c>
     </row>
   </sheetData>

--- a/MiningTopKCoOccurrenceItemsConsole/testResults/PreprocessingTimeResult.xlsx
+++ b/MiningTopKCoOccurrenceItemsConsole/testResults/PreprocessingTimeResult.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cao hoc\Codes\Mining-Top-K-Co-Occurrence-Items\MiningTopKCoOccurrenceItemsConsole\testResults\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ay\Documents\GitHub\Mining-Top-K-Co-Occurrence-Items\MiningTopKCoOccurrenceItemsConsole\testResults\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="connect" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="14">
   <si>
     <t>K=1</t>
   </si>
@@ -121,10 +121,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -159,768 +160,152 @@
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
             <c:strRef>
-              <c:f>connect!$C$2</c:f>
+              <c:f>connect!$A$10:$E$10</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>NTI</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>PT</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>BT</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>BTI</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>BTIV</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>connect!$C$3:$C$7</c:f>
+              <c:f>connect!$A$11:$E$11</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>365</c:v>
+                <c:pt idx="0" formatCode="0">
+                  <c:v>372.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>369</c:v>
+                  <c:v>4480</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>373</c:v>
+                  <c:v>1557.8</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>374</c:v>
+                <c:pt idx="3" formatCode="0">
+                  <c:v>678.2</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>382</c:v>
+                <c:pt idx="4" formatCode="0">
+                  <c:v>706.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>connect!$D$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>NT-TA</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>connect!$D$3:$D$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>connect!$E$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>NTI-TA</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>connect!$E$3:$E$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>410</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>402</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>423</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>402</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>406</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>connect!$F$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>PT</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>connect!$F$3:$F$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>4685</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4548</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4397</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4386</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4384</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>connect!$H$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>BT</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>connect!$H$3:$H$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1564</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1547</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1570</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1557</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1551</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>connect!$I$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>BTI</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>connect!$I$3:$I$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>870</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>773</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>654</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>569</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>525</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="9"/>
-          <c:order val="9"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>connect!$J$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>BTIV</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>connect!$J$3:$J$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>909</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>833</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>687</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>581</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>523</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:dropLines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="35000"/>
-                  <a:lumOff val="65000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:dropLines>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="191339680"/>
-        <c:axId val="191345120"/>
-        <c:extLst>
-          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredLineSeries>
-              <c15:ser>
-                <c:idx val="0"/>
-                <c:order val="0"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>connect!$A$2</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>Length</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="28575" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="circle"/>
-                  <c:size val="5"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="accent1"/>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c:marker>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>connect!$A$3:$A$7</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="5"/>
-                      <c:pt idx="0">
-                        <c:v>3</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>4</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>5</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>6</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>7</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
-              </c15:ser>
-            </c15:filteredLineSeries>
-            <c15:filteredLineSeries>
-              <c15:ser>
-                <c:idx val="1"/>
-                <c:order val="1"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>connect!$B$2</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>NT</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="28575" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent2"/>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="circle"/>
-                  <c:size val="5"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent2"/>
-                    </a:solidFill>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="accent2"/>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c:marker>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>connect!$B$3:$B$7</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>0</c:formatCode>
-                      <c:ptCount val="5"/>
-                      <c:pt idx="0">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>0</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
-              </c15:ser>
-            </c15:filteredLineSeries>
-            <c15:filteredLineSeries>
-              <c15:ser>
-                <c:idx val="6"/>
-                <c:order val="6"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>connect!$G$2</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>PT-TA</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="28575" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1">
-                        <a:lumMod val="60000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="circle"/>
-                  <c:size val="5"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent1">
-                        <a:lumMod val="60000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="accent1">
-                          <a:lumMod val="60000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c:marker>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>connect!$G$3:$G$7</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="5"/>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
-              </c15:ser>
-            </c15:filteredLineSeries>
-          </c:ext>
-        </c:extLst>
-      </c:lineChart>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="339616248"/>
+        <c:axId val="339616640"/>
+      </c:barChart>
       <c:catAx>
-        <c:axId val="191339680"/>
+        <c:axId val="339616248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:title>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -958,7 +343,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="191345120"/>
+        <c:crossAx val="339616640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -966,7 +351,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="191345120"/>
+        <c:axId val="339616640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -987,6 +372,37 @@
           </c:spPr>
         </c:majorGridlines>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Thời</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> gian tiền xử lý (ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1017,7 +433,7 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -1047,7 +463,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="191339680"/>
+        <c:crossAx val="339616248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1059,9 +475,367 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>accidents!$A$10:$E$10</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>NTI</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>PT</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>BT</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>BTI</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>BTIV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>accidents!$A$11:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1709.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22747.8</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>8099.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2753.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2622</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="339611936"/>
+        <c:axId val="339617424"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="339611936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="339617424"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="339617424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Thời</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> gian tiền xử lý (ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="339611936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1069,27 +843,745 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>syn_data1!$A$10:$E$10</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>NTI</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>PT</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>BT</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>BTI</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>BTIV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>syn_data1!$A$11:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0" formatCode="0">
+                  <c:v>2871</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>59289.599999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26654.799999999999</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0">
+                  <c:v>3136</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0">
+                  <c:v>2933.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="342124312"/>
+        <c:axId val="342124704"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="342124312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="342124704"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="342124704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Thời</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> gian tiền xử lý (ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="342124312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>syn_data2!$A$10:$E$10</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>NTI</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>PT</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>BT</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>BTI</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>BTIV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>syn_data2!$A$11:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0" formatCode="0">
+                  <c:v>3220.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>78868.399999999994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>89235.6</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0">
+                  <c:v>3318.2</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0">
+                  <c:v>3515.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="339611544"/>
+        <c:axId val="339622912"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="339611544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="339622912"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="339622912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Thời</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> gian tiền xử lý (ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="339611544"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1167,8 +1659,128 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1670,25 +2282,1647 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>47624</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>85724</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1968,45 +4202,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AQ7"/>
+  <dimension ref="A1:AQ11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E11" sqref="A10:E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.453125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.1796875" bestFit="1" customWidth="1"/>
     <col min="8" max="10" width="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.453125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.453125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="7" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.1796875" bestFit="1" customWidth="1"/>
     <col min="19" max="21" width="5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="3.453125" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.453125" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="7" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="5" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="6.1796875" bestFit="1" customWidth="1"/>
     <col min="30" max="32" width="5" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="3.453125" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="4" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="6.453125" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="7" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="5" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="6.1796875" bestFit="1" customWidth="1"/>
     <col min="41" max="43" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2020,7 +4254,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -2142,7 +4376,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>3</v>
       </c>
@@ -2256,7 +4490,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>4</v>
       </c>
@@ -2370,7 +4604,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>5</v>
       </c>
@@ -2484,7 +4718,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>6</v>
       </c>
@@ -2598,7 +4832,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>7</v>
       </c>
@@ -2710,6 +4944,45 @@
       </c>
       <c r="AQ7" s="1">
         <v>526</v>
+      </c>
+    </row>
+    <row r="10" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="A11" s="3">
+        <f>AVERAGE(C3:C7)</f>
+        <v>372.6</v>
+      </c>
+      <c r="B11">
+        <f>AVERAGE(F3:F7)</f>
+        <v>4480</v>
+      </c>
+      <c r="C11">
+        <f>AVERAGE(H3:H7)</f>
+        <v>1557.8</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" ref="D11:E11" si="0">AVERAGE(I3:I7)</f>
+        <v>678.2</v>
+      </c>
+      <c r="E11" s="3">
+        <f t="shared" si="0"/>
+        <v>706.6</v>
       </c>
     </row>
   </sheetData>
@@ -2720,25 +4993,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AQ7"/>
+  <dimension ref="A1:AQ11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.453125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.1796875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2752,7 +5025,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -2874,7 +5147,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>3</v>
       </c>
@@ -2988,7 +5261,7 @@
         <v>3414</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>4</v>
       </c>
@@ -3102,7 +5375,7 @@
         <v>2808</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>5</v>
       </c>
@@ -3216,7 +5489,7 @@
         <v>2548</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>6</v>
       </c>
@@ -3330,7 +5603,7 @@
         <v>2333</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>7</v>
       </c>
@@ -3444,12 +5717,1208 @@
         <v>2052</v>
       </c>
     </row>
+    <row r="10" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="A11" s="3">
+        <f>AVERAGE(C3:C7)</f>
+        <v>1709.8</v>
+      </c>
+      <c r="B11" s="3">
+        <f>AVERAGE(F3:F7)</f>
+        <v>22747.8</v>
+      </c>
+      <c r="C11">
+        <f>AVERAGE(H3:H7)</f>
+        <v>8099.4</v>
+      </c>
+      <c r="D11" s="3">
+        <f>AVERAGE(I3:I7)</f>
+        <v>2753.8</v>
+      </c>
+      <c r="E11" s="3">
+        <f>AVERAGE(J3:J7)</f>
+        <v>2622</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AQ11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" t="s">
+        <v>4</v>
+      </c>
+      <c r="W1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH2" s="1"/>
+      <c r="AI2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2">
+        <v>2805</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1">
+        <v>58920</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1">
+        <v>26591</v>
+      </c>
+      <c r="I3" s="1">
+        <v>3084</v>
+      </c>
+      <c r="J3" s="1">
+        <v>2876</v>
+      </c>
+      <c r="L3" s="1">
+        <v>3</v>
+      </c>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="W3" s="1">
+        <v>3</v>
+      </c>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1"/>
+      <c r="AH3" s="1">
+        <v>3</v>
+      </c>
+      <c r="AI3" s="2"/>
+      <c r="AJ3" s="2"/>
+      <c r="AK3" s="1"/>
+      <c r="AL3" s="1"/>
+      <c r="AM3" s="1"/>
+      <c r="AN3" s="1"/>
+      <c r="AO3" s="1"/>
+      <c r="AP3" s="1"/>
+      <c r="AQ3" s="1"/>
+    </row>
+    <row r="4" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2">
+        <v>2872</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1">
+        <v>59353</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1">
+        <v>26738</v>
+      </c>
+      <c r="I4" s="1">
+        <v>3186</v>
+      </c>
+      <c r="J4" s="1">
+        <v>2928</v>
+      </c>
+      <c r="L4" s="1">
+        <v>4</v>
+      </c>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="W4" s="1">
+        <v>4</v>
+      </c>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="1"/>
+      <c r="AF4" s="1"/>
+      <c r="AH4" s="1">
+        <v>4</v>
+      </c>
+      <c r="AI4" s="2"/>
+      <c r="AJ4" s="2"/>
+      <c r="AK4" s="1"/>
+      <c r="AL4" s="1"/>
+      <c r="AM4" s="1"/>
+      <c r="AN4" s="1"/>
+      <c r="AO4" s="1"/>
+      <c r="AP4" s="1"/>
+      <c r="AQ4" s="1"/>
+    </row>
+    <row r="5" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2">
+        <v>2829</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1">
+        <v>58556</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1">
+        <v>26732</v>
+      </c>
+      <c r="I5" s="1">
+        <v>3041</v>
+      </c>
+      <c r="J5" s="1">
+        <v>2880</v>
+      </c>
+      <c r="L5" s="1">
+        <v>5</v>
+      </c>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="W5" s="1">
+        <v>5</v>
+      </c>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="1"/>
+      <c r="AF5" s="1"/>
+      <c r="AH5" s="1">
+        <v>5</v>
+      </c>
+      <c r="AI5" s="2"/>
+      <c r="AJ5" s="2"/>
+      <c r="AK5" s="1"/>
+      <c r="AL5" s="1"/>
+      <c r="AM5" s="1"/>
+      <c r="AN5" s="1"/>
+      <c r="AO5" s="1"/>
+      <c r="AP5" s="1"/>
+      <c r="AQ5" s="1"/>
+    </row>
+    <row r="6" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2">
+        <v>2929</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1">
+        <v>58599</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1">
+        <v>26599</v>
+      </c>
+      <c r="I6" s="1">
+        <v>3164</v>
+      </c>
+      <c r="J6" s="1">
+        <v>2905</v>
+      </c>
+      <c r="L6" s="1">
+        <v>6</v>
+      </c>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="W6" s="1">
+        <v>6</v>
+      </c>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="1"/>
+      <c r="AC6" s="1"/>
+      <c r="AD6" s="1"/>
+      <c r="AE6" s="1"/>
+      <c r="AF6" s="1"/>
+      <c r="AH6" s="1">
+        <v>6</v>
+      </c>
+      <c r="AI6" s="2"/>
+      <c r="AJ6" s="2"/>
+      <c r="AK6" s="1"/>
+      <c r="AL6" s="1"/>
+      <c r="AM6" s="1"/>
+      <c r="AN6" s="1"/>
+      <c r="AO6" s="1"/>
+      <c r="AP6" s="1"/>
+      <c r="AQ6" s="1"/>
+    </row>
+    <row r="7" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2">
+        <v>2920</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1">
+        <v>61020</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1">
+        <v>26614</v>
+      </c>
+      <c r="I7" s="1">
+        <v>3205</v>
+      </c>
+      <c r="J7" s="1">
+        <v>3077</v>
+      </c>
+      <c r="L7" s="1">
+        <v>7</v>
+      </c>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="W7" s="1">
+        <v>7</v>
+      </c>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="1"/>
+      <c r="AC7" s="1"/>
+      <c r="AD7" s="1"/>
+      <c r="AE7" s="1"/>
+      <c r="AF7" s="1"/>
+      <c r="AH7" s="1">
+        <v>7</v>
+      </c>
+      <c r="AI7" s="2"/>
+      <c r="AJ7" s="2"/>
+      <c r="AK7" s="1"/>
+      <c r="AL7" s="1"/>
+      <c r="AM7" s="1"/>
+      <c r="AN7" s="1"/>
+      <c r="AO7" s="1"/>
+      <c r="AP7" s="1"/>
+      <c r="AQ7" s="1"/>
+    </row>
+    <row r="10" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="A11" s="3">
+        <f>AVERAGE(C3:C7)</f>
+        <v>2871</v>
+      </c>
+      <c r="B11">
+        <f>AVERAGE(F3:F7)</f>
+        <v>59289.599999999999</v>
+      </c>
+      <c r="C11">
+        <f>AVERAGE(H3:H7)</f>
+        <v>26654.799999999999</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" ref="D11:E11" si="0">AVERAGE(I3:I7)</f>
+        <v>3136</v>
+      </c>
+      <c r="E11" s="3">
+        <f t="shared" si="0"/>
+        <v>2933.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AQ11"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" t="s">
+        <v>4</v>
+      </c>
+      <c r="W1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH2" s="1"/>
+      <c r="AI2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>3173</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1">
+        <v>79263</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1">
+        <v>89391</v>
+      </c>
+      <c r="I3" s="1">
+        <v>3286</v>
+      </c>
+      <c r="J3" s="1">
+        <v>3446</v>
+      </c>
+      <c r="L3" s="1">
+        <v>3</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0</v>
+      </c>
+      <c r="N3" s="2">
+        <v>3246</v>
+      </c>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1">
+        <v>78607</v>
+      </c>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1">
+        <v>88867</v>
+      </c>
+      <c r="T3" s="1">
+        <v>3365</v>
+      </c>
+      <c r="U3" s="1">
+        <v>3475</v>
+      </c>
+      <c r="W3" s="1">
+        <v>3</v>
+      </c>
+      <c r="X3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>3231</v>
+      </c>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1">
+        <v>82955</v>
+      </c>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1">
+        <v>93983</v>
+      </c>
+      <c r="AE3" s="1">
+        <v>3391</v>
+      </c>
+      <c r="AF3" s="1">
+        <v>3661</v>
+      </c>
+      <c r="AH3" s="1">
+        <v>3</v>
+      </c>
+      <c r="AI3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="2">
+        <v>3293</v>
+      </c>
+      <c r="AK3" s="1"/>
+      <c r="AL3" s="1"/>
+      <c r="AM3" s="1">
+        <v>79892</v>
+      </c>
+      <c r="AN3" s="1"/>
+      <c r="AO3" s="1">
+        <v>91823</v>
+      </c>
+      <c r="AP3" s="1">
+        <v>3401</v>
+      </c>
+      <c r="AQ3" s="1">
+        <v>3564</v>
+      </c>
+    </row>
+    <row r="4" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>3230</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1">
+        <v>81419</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1">
+        <v>89247</v>
+      </c>
+      <c r="I4" s="1">
+        <v>3303</v>
+      </c>
+      <c r="J4" s="1">
+        <v>3506</v>
+      </c>
+      <c r="L4" s="1">
+        <v>4</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0</v>
+      </c>
+      <c r="N4" s="2">
+        <v>3256</v>
+      </c>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1">
+        <v>78218</v>
+      </c>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1">
+        <v>89250</v>
+      </c>
+      <c r="T4" s="1">
+        <v>3390</v>
+      </c>
+      <c r="U4" s="1">
+        <v>3517</v>
+      </c>
+      <c r="W4" s="1">
+        <v>4</v>
+      </c>
+      <c r="X4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>3269</v>
+      </c>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1">
+        <v>81543</v>
+      </c>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1">
+        <v>93998</v>
+      </c>
+      <c r="AE4" s="1">
+        <v>3371</v>
+      </c>
+      <c r="AF4" s="1">
+        <v>3592</v>
+      </c>
+      <c r="AH4" s="1">
+        <v>4</v>
+      </c>
+      <c r="AI4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="2">
+        <v>3269</v>
+      </c>
+      <c r="AK4" s="1"/>
+      <c r="AL4" s="1"/>
+      <c r="AM4" s="1">
+        <v>80545</v>
+      </c>
+      <c r="AN4" s="1"/>
+      <c r="AO4" s="1">
+        <v>92219</v>
+      </c>
+      <c r="AP4" s="1">
+        <v>3363</v>
+      </c>
+      <c r="AQ4" s="1">
+        <v>3469</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>3217</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1">
+        <v>78705</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1">
+        <v>89182</v>
+      </c>
+      <c r="I5" s="1">
+        <v>3328</v>
+      </c>
+      <c r="J5" s="1">
+        <v>3508</v>
+      </c>
+      <c r="L5" s="1">
+        <v>5</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0</v>
+      </c>
+      <c r="N5" s="2">
+        <v>3275</v>
+      </c>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1">
+        <v>77852</v>
+      </c>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1">
+        <v>89582</v>
+      </c>
+      <c r="T5" s="1">
+        <v>3323</v>
+      </c>
+      <c r="U5" s="1">
+        <v>3503</v>
+      </c>
+      <c r="W5" s="1">
+        <v>5</v>
+      </c>
+      <c r="X5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>3241</v>
+      </c>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1">
+        <v>81384</v>
+      </c>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1">
+        <v>93860</v>
+      </c>
+      <c r="AE5" s="1">
+        <v>3336</v>
+      </c>
+      <c r="AF5" s="1">
+        <v>3574</v>
+      </c>
+      <c r="AH5" s="1">
+        <v>5</v>
+      </c>
+      <c r="AI5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="2">
+        <v>3219</v>
+      </c>
+      <c r="AK5" s="1"/>
+      <c r="AL5" s="1"/>
+      <c r="AM5" s="1">
+        <v>80847</v>
+      </c>
+      <c r="AN5" s="1"/>
+      <c r="AO5" s="1">
+        <v>92284</v>
+      </c>
+      <c r="AP5" s="1">
+        <v>3350</v>
+      </c>
+      <c r="AQ5" s="1">
+        <v>3348</v>
+      </c>
+    </row>
+    <row r="6" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>3233</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1">
+        <v>78422</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1">
+        <v>89287</v>
+      </c>
+      <c r="I6" s="1">
+        <v>3302</v>
+      </c>
+      <c r="J6" s="1">
+        <v>3541</v>
+      </c>
+      <c r="L6" s="1">
+        <v>6</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0</v>
+      </c>
+      <c r="N6" s="2">
+        <v>3247</v>
+      </c>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1">
+        <v>78484</v>
+      </c>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1">
+        <v>89807</v>
+      </c>
+      <c r="T6" s="1">
+        <v>3318</v>
+      </c>
+      <c r="U6" s="1">
+        <v>3567</v>
+      </c>
+      <c r="W6" s="1">
+        <v>6</v>
+      </c>
+      <c r="X6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>3282</v>
+      </c>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="1">
+        <v>79515</v>
+      </c>
+      <c r="AC6" s="1"/>
+      <c r="AD6" s="1">
+        <v>91627</v>
+      </c>
+      <c r="AE6" s="1">
+        <v>3344</v>
+      </c>
+      <c r="AF6" s="1">
+        <v>3550</v>
+      </c>
+      <c r="AH6" s="1">
+        <v>6</v>
+      </c>
+      <c r="AI6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="2">
+        <v>3300</v>
+      </c>
+      <c r="AK6" s="1"/>
+      <c r="AL6" s="1"/>
+      <c r="AM6" s="1">
+        <v>79939</v>
+      </c>
+      <c r="AN6" s="1"/>
+      <c r="AO6" s="1">
+        <v>92333</v>
+      </c>
+      <c r="AP6" s="1">
+        <v>3339</v>
+      </c>
+      <c r="AQ6" s="1">
+        <v>3456</v>
+      </c>
+    </row>
+    <row r="7" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>3251</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1">
+        <v>76533</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1">
+        <v>89071</v>
+      </c>
+      <c r="I7" s="1">
+        <v>3372</v>
+      </c>
+      <c r="J7" s="1">
+        <v>3576</v>
+      </c>
+      <c r="L7" s="1">
+        <v>7</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0</v>
+      </c>
+      <c r="N7" s="2">
+        <v>3269</v>
+      </c>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1">
+        <v>80775</v>
+      </c>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1">
+        <v>93226</v>
+      </c>
+      <c r="T7" s="1">
+        <v>3365</v>
+      </c>
+      <c r="U7" s="1">
+        <v>3507</v>
+      </c>
+      <c r="W7" s="1">
+        <v>7</v>
+      </c>
+      <c r="X7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="2">
+        <v>3263</v>
+      </c>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="1">
+        <v>78815</v>
+      </c>
+      <c r="AC7" s="1"/>
+      <c r="AD7" s="1">
+        <v>91456</v>
+      </c>
+      <c r="AE7" s="1">
+        <v>3392</v>
+      </c>
+      <c r="AF7" s="1">
+        <v>3575</v>
+      </c>
+      <c r="AH7" s="1">
+        <v>7</v>
+      </c>
+      <c r="AI7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="2">
+        <v>3254</v>
+      </c>
+      <c r="AK7" s="1"/>
+      <c r="AL7" s="1"/>
+      <c r="AM7" s="1">
+        <v>79796</v>
+      </c>
+      <c r="AN7" s="1"/>
+      <c r="AO7" s="1">
+        <v>93941</v>
+      </c>
+      <c r="AP7" s="1">
+        <v>3307</v>
+      </c>
+      <c r="AQ7" s="1">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="10" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="A11" s="3">
+        <f>AVERAGE(C3:C7)</f>
+        <v>3220.8</v>
+      </c>
+      <c r="B11">
+        <f>AVERAGE(F3:F7)</f>
+        <v>78868.399999999994</v>
+      </c>
+      <c r="C11">
+        <f>AVERAGE(H3:H7)</f>
+        <v>89235.6</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" ref="D11:E11" si="0">AVERAGE(I3:I7)</f>
+        <v>3318.2</v>
+      </c>
+      <c r="E11" s="3">
+        <f t="shared" si="0"/>
+        <v>3515.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ7"/>
   <sheetViews>
@@ -3457,9 +6926,9 @@
       <selection sqref="A1:AQ7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3473,7 +6942,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -3587,7 +7056,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>3</v>
       </c>
@@ -3637,7 +7106,7 @@
       <c r="AP3" s="1"/>
       <c r="AQ3" s="1"/>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>4</v>
       </c>
@@ -3687,7 +7156,7 @@
       <c r="AP4" s="1"/>
       <c r="AQ4" s="1"/>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>5</v>
       </c>
@@ -3737,7 +7206,7 @@
       <c r="AP5" s="1"/>
       <c r="AQ5" s="1"/>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>6</v>
       </c>
@@ -3787,1033 +7256,7 @@
       <c r="AP6" s="1"/>
       <c r="AQ6" s="1"/>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>7</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="L7" s="1">
-        <v>7</v>
-      </c>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="W7" s="1">
-        <v>7</v>
-      </c>
-      <c r="X7" s="1"/>
-      <c r="Y7" s="2"/>
-      <c r="Z7" s="1"/>
-      <c r="AA7" s="1"/>
-      <c r="AB7" s="1"/>
-      <c r="AC7" s="1"/>
-      <c r="AD7" s="1"/>
-      <c r="AE7" s="1"/>
-      <c r="AF7" s="1"/>
-      <c r="AH7" s="1">
-        <v>7</v>
-      </c>
-      <c r="AI7" s="2"/>
-      <c r="AJ7" s="2"/>
-      <c r="AK7" s="1"/>
-      <c r="AL7" s="1"/>
-      <c r="AM7" s="1"/>
-      <c r="AN7" s="1"/>
-      <c r="AO7" s="1"/>
-      <c r="AP7" s="1"/>
-      <c r="AQ7" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AQ7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:AQ7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L1" t="s">
-        <v>4</v>
-      </c>
-      <c r="W1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AH2" s="1"/>
-      <c r="AI2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AJ2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AK2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="AL2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AM2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="AN2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AO2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AP2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="AQ2" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2">
-        <v>3173</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1">
-        <v>79263</v>
-      </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1">
-        <v>89391</v>
-      </c>
-      <c r="I3" s="1">
-        <v>3286</v>
-      </c>
-      <c r="J3" s="1">
-        <v>3446</v>
-      </c>
-      <c r="L3" s="1">
-        <v>3</v>
-      </c>
-      <c r="M3" s="2">
-        <v>0</v>
-      </c>
-      <c r="N3" s="2">
-        <v>3246</v>
-      </c>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1">
-        <v>78607</v>
-      </c>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1">
-        <v>88867</v>
-      </c>
-      <c r="T3" s="1">
-        <v>3365</v>
-      </c>
-      <c r="U3" s="1">
-        <v>3475</v>
-      </c>
-      <c r="W3" s="1">
-        <v>3</v>
-      </c>
-      <c r="X3" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="2">
-        <v>3231</v>
-      </c>
-      <c r="Z3" s="1"/>
-      <c r="AA3" s="1"/>
-      <c r="AB3" s="1">
-        <v>82955</v>
-      </c>
-      <c r="AC3" s="1"/>
-      <c r="AD3" s="1">
-        <v>93983</v>
-      </c>
-      <c r="AE3" s="1">
-        <v>3391</v>
-      </c>
-      <c r="AF3" s="1">
-        <v>3661</v>
-      </c>
-      <c r="AH3" s="1">
-        <v>3</v>
-      </c>
-      <c r="AI3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ3" s="2">
-        <v>3293</v>
-      </c>
-      <c r="AK3" s="1"/>
-      <c r="AL3" s="1"/>
-      <c r="AM3" s="1">
-        <v>79892</v>
-      </c>
-      <c r="AN3" s="1"/>
-      <c r="AO3" s="1">
-        <v>91823</v>
-      </c>
-      <c r="AP3" s="1">
-        <v>3401</v>
-      </c>
-      <c r="AQ3" s="1">
-        <v>3564</v>
-      </c>
-    </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2">
-        <v>3230</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1">
-        <v>81419</v>
-      </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1">
-        <v>89247</v>
-      </c>
-      <c r="I4" s="1">
-        <v>3303</v>
-      </c>
-      <c r="J4" s="1">
-        <v>3506</v>
-      </c>
-      <c r="L4" s="1">
-        <v>4</v>
-      </c>
-      <c r="M4" s="2">
-        <v>0</v>
-      </c>
-      <c r="N4" s="2">
-        <v>3256</v>
-      </c>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1">
-        <v>78218</v>
-      </c>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1">
-        <v>89250</v>
-      </c>
-      <c r="T4" s="1">
-        <v>3390</v>
-      </c>
-      <c r="U4" s="1">
-        <v>3517</v>
-      </c>
-      <c r="W4" s="1">
-        <v>4</v>
-      </c>
-      <c r="X4" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="2">
-        <v>3269</v>
-      </c>
-      <c r="Z4" s="1"/>
-      <c r="AA4" s="1"/>
-      <c r="AB4" s="1">
-        <v>81543</v>
-      </c>
-      <c r="AC4" s="1"/>
-      <c r="AD4" s="1">
-        <v>93998</v>
-      </c>
-      <c r="AE4" s="1">
-        <v>3371</v>
-      </c>
-      <c r="AF4" s="1">
-        <v>3592</v>
-      </c>
-      <c r="AH4" s="1">
-        <v>4</v>
-      </c>
-      <c r="AI4" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ4" s="2">
-        <v>3269</v>
-      </c>
-      <c r="AK4" s="1"/>
-      <c r="AL4" s="1"/>
-      <c r="AM4" s="1">
-        <v>80545</v>
-      </c>
-      <c r="AN4" s="1"/>
-      <c r="AO4" s="1">
-        <v>92219</v>
-      </c>
-      <c r="AP4" s="1">
-        <v>3363</v>
-      </c>
-      <c r="AQ4" s="1">
-        <v>3469</v>
-      </c>
-    </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>5</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2">
-        <v>3217</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1">
-        <v>78705</v>
-      </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1">
-        <v>89182</v>
-      </c>
-      <c r="I5" s="1">
-        <v>3328</v>
-      </c>
-      <c r="J5" s="1">
-        <v>3508</v>
-      </c>
-      <c r="L5" s="1">
-        <v>5</v>
-      </c>
-      <c r="M5" s="2">
-        <v>0</v>
-      </c>
-      <c r="N5" s="2">
-        <v>3275</v>
-      </c>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1">
-        <v>77852</v>
-      </c>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1">
-        <v>89582</v>
-      </c>
-      <c r="T5" s="1">
-        <v>3323</v>
-      </c>
-      <c r="U5" s="1">
-        <v>3503</v>
-      </c>
-      <c r="W5" s="1">
-        <v>5</v>
-      </c>
-      <c r="X5" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="2">
-        <v>3241</v>
-      </c>
-      <c r="Z5" s="1"/>
-      <c r="AA5" s="1"/>
-      <c r="AB5" s="1">
-        <v>81384</v>
-      </c>
-      <c r="AC5" s="1"/>
-      <c r="AD5" s="1">
-        <v>93860</v>
-      </c>
-      <c r="AE5" s="1">
-        <v>3336</v>
-      </c>
-      <c r="AF5" s="1">
-        <v>3574</v>
-      </c>
-      <c r="AH5" s="1">
-        <v>5</v>
-      </c>
-      <c r="AI5" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ5" s="2">
-        <v>3219</v>
-      </c>
-      <c r="AK5" s="1"/>
-      <c r="AL5" s="1"/>
-      <c r="AM5" s="1">
-        <v>80847</v>
-      </c>
-      <c r="AN5" s="1"/>
-      <c r="AO5" s="1">
-        <v>92284</v>
-      </c>
-      <c r="AP5" s="1">
-        <v>3350</v>
-      </c>
-      <c r="AQ5" s="1">
-        <v>3348</v>
-      </c>
-    </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>6</v>
-      </c>
-      <c r="B6" s="2">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2">
-        <v>3233</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1">
-        <v>78422</v>
-      </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1">
-        <v>89287</v>
-      </c>
-      <c r="I6" s="1">
-        <v>3302</v>
-      </c>
-      <c r="J6" s="1">
-        <v>3541</v>
-      </c>
-      <c r="L6" s="1">
-        <v>6</v>
-      </c>
-      <c r="M6" s="2">
-        <v>0</v>
-      </c>
-      <c r="N6" s="2">
-        <v>3247</v>
-      </c>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1">
-        <v>78484</v>
-      </c>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1">
-        <v>89807</v>
-      </c>
-      <c r="T6" s="1">
-        <v>3318</v>
-      </c>
-      <c r="U6" s="1">
-        <v>3567</v>
-      </c>
-      <c r="W6" s="1">
-        <v>6</v>
-      </c>
-      <c r="X6" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="2">
-        <v>3282</v>
-      </c>
-      <c r="Z6" s="1"/>
-      <c r="AA6" s="1"/>
-      <c r="AB6" s="1">
-        <v>79515</v>
-      </c>
-      <c r="AC6" s="1"/>
-      <c r="AD6" s="1">
-        <v>91627</v>
-      </c>
-      <c r="AE6" s="1">
-        <v>3344</v>
-      </c>
-      <c r="AF6" s="1">
-        <v>3550</v>
-      </c>
-      <c r="AH6" s="1">
-        <v>6</v>
-      </c>
-      <c r="AI6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ6" s="2">
-        <v>3300</v>
-      </c>
-      <c r="AK6" s="1"/>
-      <c r="AL6" s="1"/>
-      <c r="AM6" s="1">
-        <v>79939</v>
-      </c>
-      <c r="AN6" s="1"/>
-      <c r="AO6" s="1">
-        <v>92333</v>
-      </c>
-      <c r="AP6" s="1">
-        <v>3339</v>
-      </c>
-      <c r="AQ6" s="1">
-        <v>3456</v>
-      </c>
-    </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>7</v>
-      </c>
-      <c r="B7" s="2">
-        <v>0</v>
-      </c>
-      <c r="C7" s="2">
-        <v>3251</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1">
-        <v>76533</v>
-      </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1">
-        <v>89071</v>
-      </c>
-      <c r="I7" s="1">
-        <v>3372</v>
-      </c>
-      <c r="J7" s="1">
-        <v>3576</v>
-      </c>
-      <c r="L7" s="1">
-        <v>7</v>
-      </c>
-      <c r="M7" s="2">
-        <v>0</v>
-      </c>
-      <c r="N7" s="2">
-        <v>3269</v>
-      </c>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1">
-        <v>80775</v>
-      </c>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1">
-        <v>93226</v>
-      </c>
-      <c r="T7" s="1">
-        <v>3365</v>
-      </c>
-      <c r="U7" s="1">
-        <v>3507</v>
-      </c>
-      <c r="W7" s="1">
-        <v>7</v>
-      </c>
-      <c r="X7" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="2">
-        <v>3263</v>
-      </c>
-      <c r="Z7" s="1"/>
-      <c r="AA7" s="1"/>
-      <c r="AB7" s="1">
-        <v>78815</v>
-      </c>
-      <c r="AC7" s="1"/>
-      <c r="AD7" s="1">
-        <v>91456</v>
-      </c>
-      <c r="AE7" s="1">
-        <v>3392</v>
-      </c>
-      <c r="AF7" s="1">
-        <v>3575</v>
-      </c>
-      <c r="AH7" s="1">
-        <v>7</v>
-      </c>
-      <c r="AI7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="2">
-        <v>3254</v>
-      </c>
-      <c r="AK7" s="1"/>
-      <c r="AL7" s="1"/>
-      <c r="AM7" s="1">
-        <v>79796</v>
-      </c>
-      <c r="AN7" s="1"/>
-      <c r="AO7" s="1">
-        <v>93941</v>
-      </c>
-      <c r="AP7" s="1">
-        <v>3307</v>
-      </c>
-      <c r="AQ7" s="1">
-        <v>3400</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AQ7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:AQ7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L1" t="s">
-        <v>4</v>
-      </c>
-      <c r="W1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AH2" s="1"/>
-      <c r="AI2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AJ2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AK2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="AL2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AM2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="AN2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AO2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AP2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="AQ2" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="L3" s="1">
-        <v>3</v>
-      </c>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="W3" s="1">
-        <v>3</v>
-      </c>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="1"/>
-      <c r="AA3" s="1"/>
-      <c r="AB3" s="1"/>
-      <c r="AC3" s="1"/>
-      <c r="AD3" s="1"/>
-      <c r="AE3" s="1"/>
-      <c r="AF3" s="1"/>
-      <c r="AH3" s="1">
-        <v>3</v>
-      </c>
-      <c r="AI3" s="2"/>
-      <c r="AJ3" s="2"/>
-      <c r="AK3" s="1"/>
-      <c r="AL3" s="1"/>
-      <c r="AM3" s="1"/>
-      <c r="AN3" s="1"/>
-      <c r="AO3" s="1"/>
-      <c r="AP3" s="1"/>
-      <c r="AQ3" s="1"/>
-    </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="L4" s="1">
-        <v>4</v>
-      </c>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="W4" s="1">
-        <v>4</v>
-      </c>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="1"/>
-      <c r="AA4" s="1"/>
-      <c r="AB4" s="1"/>
-      <c r="AC4" s="1"/>
-      <c r="AD4" s="1"/>
-      <c r="AE4" s="1"/>
-      <c r="AF4" s="1"/>
-      <c r="AH4" s="1">
-        <v>4</v>
-      </c>
-      <c r="AI4" s="2"/>
-      <c r="AJ4" s="2"/>
-      <c r="AK4" s="1"/>
-      <c r="AL4" s="1"/>
-      <c r="AM4" s="1"/>
-      <c r="AN4" s="1"/>
-      <c r="AO4" s="1"/>
-      <c r="AP4" s="1"/>
-      <c r="AQ4" s="1"/>
-    </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>5</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="L5" s="1">
-        <v>5</v>
-      </c>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-      <c r="W5" s="1">
-        <v>5</v>
-      </c>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="1"/>
-      <c r="AA5" s="1"/>
-      <c r="AB5" s="1"/>
-      <c r="AC5" s="1"/>
-      <c r="AD5" s="1"/>
-      <c r="AE5" s="1"/>
-      <c r="AF5" s="1"/>
-      <c r="AH5" s="1">
-        <v>5</v>
-      </c>
-      <c r="AI5" s="2"/>
-      <c r="AJ5" s="2"/>
-      <c r="AK5" s="1"/>
-      <c r="AL5" s="1"/>
-      <c r="AM5" s="1"/>
-      <c r="AN5" s="1"/>
-      <c r="AO5" s="1"/>
-      <c r="AP5" s="1"/>
-      <c r="AQ5" s="1"/>
-    </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>6</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="L6" s="1">
-        <v>6</v>
-      </c>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="W6" s="1">
-        <v>6</v>
-      </c>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="1"/>
-      <c r="AA6" s="1"/>
-      <c r="AB6" s="1"/>
-      <c r="AC6" s="1"/>
-      <c r="AD6" s="1"/>
-      <c r="AE6" s="1"/>
-      <c r="AF6" s="1"/>
-      <c r="AH6" s="1">
-        <v>6</v>
-      </c>
-      <c r="AI6" s="2"/>
-      <c r="AJ6" s="2"/>
-      <c r="AK6" s="1"/>
-      <c r="AL6" s="1"/>
-      <c r="AM6" s="1"/>
-      <c r="AN6" s="1"/>
-      <c r="AO6" s="1"/>
-      <c r="AP6" s="1"/>
-      <c r="AQ6" s="1"/>
-    </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>7</v>
       </c>
@@ -4872,13 +7315,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:AQ7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4892,7 +7335,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -5006,7 +7449,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>3</v>
       </c>
@@ -5056,7 +7499,7 @@
       <c r="AP3" s="1"/>
       <c r="AQ3" s="1"/>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>4</v>
       </c>
@@ -5106,7 +7549,7 @@
       <c r="AP4" s="1"/>
       <c r="AQ4" s="1"/>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>5</v>
       </c>
@@ -5156,7 +7599,7 @@
       <c r="AP5" s="1"/>
       <c r="AQ5" s="1"/>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>6</v>
       </c>
@@ -5206,7 +7649,7 @@
       <c r="AP6" s="1"/>
       <c r="AQ6" s="1"/>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>7</v>
       </c>
